--- a/teaching/traditional_assets/database/data/denmark/denmark_entertainment.xlsx
+++ b/teaching/traditional_assets/database/data/denmark/denmark_entertainment.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="cpse_sif" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -351,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +584,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,34 +593,37 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.08975</v>
+        <v>0.022</v>
+      </c>
+      <c r="E2">
+        <v>0.195</v>
       </c>
       <c r="G2">
-        <v>0.1566147859922179</v>
+        <v>0.03073599107889601</v>
       </c>
       <c r="H2">
-        <v>0.07782101167315175</v>
+        <v>-0.01201096552365023</v>
       </c>
       <c r="I2">
-        <v>-0.2283756267918312</v>
+        <v>-0.1843694823901124</v>
       </c>
       <c r="J2">
-        <v>-0.2283756267918312</v>
+        <v>-0.1808592646172797</v>
       </c>
       <c r="K2">
-        <v>-18.94</v>
+        <v>-13.797</v>
       </c>
       <c r="L2">
-        <v>-0.4606031128404668</v>
+        <v>-0.3205324783942013</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.601</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.005110544217687075</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>-0.04356019424512576</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -630,76 +635,79 @@
         <v>-0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.601</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>1.75</v>
+        <v>6.347</v>
       </c>
       <c r="V2">
-        <v>0.03516881028938907</v>
+        <v>0.05397108843537415</v>
       </c>
       <c r="W2">
-        <v>-0.4586776859504132</v>
+        <v>-1.248502994011976</v>
       </c>
       <c r="X2">
-        <v>0.102207752152256</v>
+        <v>0.05843076096327017</v>
       </c>
       <c r="Y2">
-        <v>-0.5608854381026692</v>
+        <v>-1.306933754975246</v>
       </c>
       <c r="Z2">
-        <v>0.3718304812985926</v>
+        <v>0.4026717557251908</v>
       </c>
       <c r="AA2">
-        <v>-0.2064896755162242</v>
+        <v>-1.618865519439133</v>
       </c>
       <c r="AB2">
-        <v>0.07912690375881611</v>
+        <v>0.05843076096327017</v>
       </c>
       <c r="AC2">
-        <v>-0.2856165792750403</v>
+        <v>-1.677326307770425</v>
       </c>
       <c r="AD2">
-        <v>66.27800000000001</v>
+        <v>53.036</v>
       </c>
       <c r="AE2">
-        <v>0.5240288684004873</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>66.80202886840048</v>
+        <v>53.036</v>
       </c>
       <c r="AG2">
-        <v>65.05202886840048</v>
+        <v>46.689</v>
       </c>
       <c r="AH2">
-        <v>0.573102832173765</v>
+        <v>0.3108136618298601</v>
       </c>
       <c r="AI2">
-        <v>0.6092739213042166</v>
+        <v>0.5417530669989888</v>
       </c>
       <c r="AJ2">
-        <v>0.5665959351956426</v>
+        <v>0.2841882292788927</v>
       </c>
       <c r="AK2">
-        <v>0.6029363758442862</v>
+        <v>0.50998361551065</v>
       </c>
       <c r="AL2">
-        <v>2.225</v>
+        <v>3.958</v>
       </c>
       <c r="AM2">
-        <v>2.179</v>
+        <v>3.892</v>
       </c>
       <c r="AN2">
-        <v>-24.91654135338346</v>
+        <v>23.96565747853593</v>
       </c>
       <c r="AO2">
-        <v>-4.301573033707865</v>
+        <v>-2.005053057099545</v>
       </c>
       <c r="AP2">
-        <v>-24.4556499505265</v>
+        <v>21.09760506100316</v>
       </c>
       <c r="AQ2">
-        <v>-4.392381826525929</v>
+        <v>-2.039054470709147</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +727,28 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.115</v>
+        <v>0.06860000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.195</v>
       </c>
       <c r="G3">
-        <v>0.3662162162162162</v>
+        <v>0.3873239436619719</v>
       </c>
       <c r="H3">
-        <v>0.3662162162162162</v>
+        <v>0.3873239436619719</v>
       </c>
       <c r="I3">
-        <v>-0.01290540540540541</v>
+        <v>0.4133802816901408</v>
       </c>
       <c r="J3">
-        <v>-0.01290540540540541</v>
+        <v>0.3740284650848031</v>
       </c>
       <c r="K3">
-        <v>-1.71</v>
+        <v>3.01</v>
       </c>
       <c r="L3">
-        <v>-0.1155405405405405</v>
+        <v>0.2119718309859155</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -746,7 +757,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -755,79 +766,79 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.103</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="V3">
-        <v>0.00463963963963964</v>
+        <v>0.004200000000000001</v>
       </c>
       <c r="W3">
-        <v>-0.05570032573289902</v>
+        <v>0.1071174377224199</v>
       </c>
       <c r="X3">
-        <v>0.1957587049633819</v>
+        <v>0.1597924339065929</v>
       </c>
       <c r="Y3">
-        <v>-0.2514590306962809</v>
+        <v>-0.05267499618417296</v>
       </c>
       <c r="Z3">
-        <v>0.1814170139740132</v>
+        <v>0.1729661254369831</v>
       </c>
       <c r="AA3">
-        <v>-0.002341260112772739</v>
+        <v>0.0646942544088603</v>
       </c>
       <c r="AB3">
-        <v>0.07797335845592498</v>
+        <v>0.05470616019385266</v>
       </c>
       <c r="AC3">
-        <v>-0.08031461856869772</v>
+        <v>0.00998809421500764</v>
       </c>
       <c r="AD3">
-        <v>54.1</v>
+        <v>52.9</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>54.1</v>
+        <v>52.9</v>
       </c>
       <c r="AG3">
-        <v>53.997</v>
+        <v>52.816</v>
       </c>
       <c r="AH3">
-        <v>0.709043250327654</v>
+        <v>0.7256515775034292</v>
       </c>
       <c r="AI3">
-        <v>0.6581508515815085</v>
+        <v>0.6312649164677804</v>
       </c>
       <c r="AJ3">
-        <v>0.7086499468483011</v>
+        <v>0.7253350911887496</v>
       </c>
       <c r="AK3">
-        <v>0.6577219630437166</v>
+        <v>0.6308949304792393</v>
       </c>
       <c r="AL3">
-        <v>1.72</v>
+        <v>1.33</v>
       </c>
       <c r="AM3">
-        <v>1.698</v>
+        <v>1.265</v>
       </c>
       <c r="AN3">
-        <v>55.54414784394251</v>
+        <v>7.461212976022567</v>
       </c>
       <c r="AO3">
-        <v>-0.111046511627907</v>
+        <v>4.413533834586466</v>
       </c>
       <c r="AP3">
-        <v>55.43839835728953</v>
+        <v>7.449365303244005</v>
       </c>
       <c r="AQ3">
-        <v>-0.1124852767962309</v>
+        <v>4.640316205533597</v>
       </c>
     </row>
     <row r="4">
@@ -847,25 +858,25 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0645</v>
+        <v>0.022</v>
       </c>
       <c r="G4">
-        <v>0.08577075098814228</v>
+        <v>0.02200956937799043</v>
       </c>
       <c r="H4">
-        <v>0.08577075098814228</v>
+        <v>0.02200956937799043</v>
       </c>
       <c r="I4">
-        <v>-0.2185770750988142</v>
+        <v>-0.2205741626794259</v>
       </c>
       <c r="J4">
-        <v>-0.2185770750988142</v>
+        <v>-0.2205741626794259</v>
       </c>
       <c r="K4">
-        <v>-11.1</v>
+        <v>-7.39</v>
       </c>
       <c r="L4">
-        <v>-0.4387351778656126</v>
+        <v>-0.3535885167464115</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -889,73 +900,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.347</v>
+        <v>4.01</v>
       </c>
       <c r="V4">
-        <v>0.01371541501976284</v>
+        <v>0.1152298850574713</v>
       </c>
       <c r="W4">
-        <v>-0.4586776859504132</v>
+        <v>-0.4993243243243243</v>
       </c>
       <c r="X4">
-        <v>0.102207752152256</v>
+        <v>0.05843076096327017</v>
       </c>
       <c r="Y4">
-        <v>-0.5608854381026692</v>
+        <v>-0.5577550852875944</v>
       </c>
       <c r="Z4">
-        <v>0.9446996004630149</v>
+        <v>0.8996986655187258</v>
       </c>
       <c r="AA4">
-        <v>-0.2064896755162242</v>
+        <v>-0.1984502798105898</v>
       </c>
       <c r="AB4">
-        <v>0.07912690375881611</v>
+        <v>0.05843076096327017</v>
       </c>
       <c r="AC4">
-        <v>-0.2856165792750403</v>
+        <v>-0.25688104077386</v>
       </c>
       <c r="AD4">
-        <v>11.8</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>11.8</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>11.453</v>
+        <v>-4.01</v>
       </c>
       <c r="AH4">
-        <v>0.3180592991913747</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.5086206896551724</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.31162082006911</v>
+        <v>-0.1302370899642741</v>
       </c>
       <c r="AK4">
-        <v>0.501159585174813</v>
+        <v>-0.1848778238819733</v>
       </c>
       <c r="AL4">
-        <v>0.432</v>
+        <v>0.585</v>
       </c>
       <c r="AM4">
-        <v>0.408</v>
+        <v>0.584</v>
       </c>
       <c r="AN4">
-        <v>-42.29390681003584</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>-12.80092592592593</v>
+        <v>-7.880341880341882</v>
       </c>
       <c r="AP4">
-        <v>-41.05017921146953</v>
+        <v>-2.823943661971831</v>
       </c>
       <c r="AQ4">
-        <v>-13.55392156862745</v>
+        <v>-7.893835616438357</v>
       </c>
     </row>
     <row r="5">
@@ -966,7 +977,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5th Planet Games A/S (OB:FIVEPG)</t>
+          <t>5th Planet Games A/S (OB:5PG)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -974,32 +985,35 @@
           <t>Entertainment</t>
         </is>
       </c>
+      <c r="D5">
+        <v>-0.07339999999999999</v>
+      </c>
       <c r="G5">
-        <v>-1.127450980392156</v>
+        <v>-2.024096385542169</v>
       </c>
       <c r="H5">
-        <v>-4.303921568627451</v>
+        <v>-6.457831325301205</v>
       </c>
       <c r="I5">
-        <v>-3.597848797725586</v>
+        <v>-6.120481927710844</v>
       </c>
       <c r="J5">
-        <v>-3.597848797725586</v>
+        <v>-6.120481927710844</v>
       </c>
       <c r="K5">
-        <v>-6.13</v>
+        <v>-4.17</v>
       </c>
       <c r="L5">
-        <v>-6.009803921568627</v>
+        <v>-10.04819277108434</v>
       </c>
       <c r="M5">
-        <v>-0</v>
+        <v>0.601</v>
       </c>
       <c r="N5">
-        <v>-0</v>
+        <v>0.0408843537414966</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>-0.1441247002398081</v>
       </c>
       <c r="P5">
         <v>-0</v>
@@ -1011,76 +1025,9005 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.601</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>1.3</v>
+        <v>0.343</v>
       </c>
       <c r="V5">
-        <v>0.5752212389380532</v>
+        <v>0.02333333333333334</v>
       </c>
       <c r="W5">
-        <v>-0.8087071240105541</v>
+        <v>-1.248502994011976</v>
       </c>
       <c r="X5">
-        <v>0.099013859903938</v>
+        <v>0.05878530457707859</v>
       </c>
       <c r="Y5">
-        <v>-0.9077209839144921</v>
+        <v>-1.307288298589055</v>
       </c>
       <c r="Z5">
-        <v>0.4580093300418649</v>
+        <v>0.2644996813256851</v>
       </c>
       <c r="AA5">
-        <v>-1.647848317438225</v>
+        <v>-1.618865519439133</v>
       </c>
       <c r="AB5">
-        <v>0.07922364705323184</v>
+        <v>0.05846078833129249</v>
       </c>
       <c r="AC5">
-        <v>-1.727071964491457</v>
+        <v>-1.677326307770425</v>
       </c>
       <c r="AD5">
-        <v>0.378</v>
+        <v>0.136</v>
       </c>
       <c r="AE5">
-        <v>0.5240288684004873</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.9020288684004873</v>
+        <v>0.136</v>
       </c>
       <c r="AG5">
-        <v>-0.3979711315995127</v>
+        <v>-0.207</v>
       </c>
       <c r="AH5">
-        <v>0.2852690174384078</v>
+        <v>0.009166891345376113</v>
       </c>
       <c r="AI5">
-        <v>0.2126409075430477</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="AJ5">
-        <v>-0.2137298397212157</v>
+        <v>-0.01428275719312772</v>
       </c>
       <c r="AK5">
-        <v>-0.1352709811497806</v>
+        <v>-0.5847457627118644</v>
       </c>
       <c r="AL5">
-        <v>0.073</v>
+        <v>0.063</v>
       </c>
       <c r="AM5">
-        <v>0.073</v>
+        <v>0.063</v>
       </c>
       <c r="AN5">
-        <v>-0.1126676602086438</v>
+        <v>-0.0544</v>
       </c>
       <c r="AO5">
-        <v>-52.73972602739727</v>
+        <v>-40.31746031746032</v>
       </c>
       <c r="AP5">
-        <v>0.1186203074812258</v>
+        <v>0.08280000000000001</v>
       </c>
       <c r="AQ5">
-        <v>-52.73972602739727</v>
+        <v>-40.31746031746032</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Astralis Group A/S (CPSE:ASTGRP)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="G6">
+        <v>-0.4671232876712329</v>
+      </c>
+      <c r="H6">
+        <v>-0.4671232876712329</v>
+      </c>
+      <c r="I6">
+        <v>-0.8301369863013698</v>
+      </c>
+      <c r="J6">
+        <v>-0.8301369863013698</v>
+      </c>
+      <c r="K6">
+        <v>-4.68</v>
+      </c>
+      <c r="L6">
+        <v>-0.6410958904109589</v>
+      </c>
+      <c r="M6">
+        <v>-0</v>
+      </c>
+      <c r="N6">
+        <v>-0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>-0</v>
+      </c>
+      <c r="Q6">
+        <v>-0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>1.91</v>
+      </c>
+      <c r="V6">
+        <v>0.05106951871657754</v>
+      </c>
+      <c r="X6">
+        <v>0.05843076096327017</v>
+      </c>
+      <c r="AB6">
+        <v>0.05843076096327017</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>-1.91</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>-0</v>
+      </c>
+      <c r="AJ6">
+        <v>-0.05381797689489996</v>
+      </c>
+      <c r="AK6">
+        <v>0.1344123856439127</v>
+      </c>
+      <c r="AL6">
+        <v>1.98</v>
+      </c>
+      <c r="AM6">
+        <v>1.98</v>
+      </c>
+      <c r="AN6">
+        <v>-0</v>
+      </c>
+      <c r="AO6">
+        <v>-3.060606060606061</v>
+      </c>
+      <c r="AP6">
+        <v>0.5601173020527859</v>
+      </c>
+      <c r="AQ6">
+        <v>-3.060606060606061</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mdundo.com A/S (CPSE:MDUNDO)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="G7">
+        <v>-1.689956331877729</v>
+      </c>
+      <c r="H7">
+        <v>-1.689956331877729</v>
+      </c>
+      <c r="I7">
+        <v>-2.602620087336244</v>
+      </c>
+      <c r="J7">
+        <v>-2.602620087336244</v>
+      </c>
+      <c r="K7">
+        <v>-0.5669999999999999</v>
+      </c>
+      <c r="L7">
+        <v>-2.475982532751091</v>
+      </c>
+      <c r="M7">
+        <v>-0</v>
+      </c>
+      <c r="N7">
+        <v>-0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>-0</v>
+      </c>
+      <c r="Q7">
+        <v>-0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0.05843076096327017</v>
+      </c>
+      <c r="AB7">
+        <v>0.05843076096327017</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>-0</v>
+      </c>
+      <c r="AP7">
+        <v>-0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Silkeborg IF Invest A/S (CPSE:SIF)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CPSE:SIF</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.725651577503429</v>
+      </c>
+      <c r="F2">
+        <v>0.36</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>45.6580394839254</v>
+      </c>
+      <c r="I2">
+        <v>72.816</v>
+      </c>
+      <c r="J2">
+        <v>71.8180394839254</v>
+      </c>
+      <c r="K2">
+        <v>52.9</v>
+      </c>
+      <c r="L2">
+        <v>26.244</v>
+      </c>
+      <c r="M2">
+        <v>0.0547061601938527</v>
+      </c>
+      <c r="N2">
+        <v>0.0557405646949792</v>
+      </c>
+      <c r="O2">
+        <v>0.014976</v>
+      </c>
+      <c r="P2">
+        <v>0.012636</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Baa2/BBB</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.159792433906593</v>
+      </c>
+      <c r="T2">
+        <v>0.07998688233590499</v>
+      </c>
+      <c r="U2">
+        <v>3.18839902344476</v>
+      </c>
+      <c r="V2">
+        <v>1.49760343932002</v>
+      </c>
+      <c r="W2">
+        <v>13.92440553137601</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>20</v>
+      </c>
+      <c r="AB2">
+        <v>0.0472</v>
+      </c>
+      <c r="AC2">
+        <v>0.0192</v>
+      </c>
+      <c r="AD2">
+        <v>0.22</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>7.09</v>
+      </c>
+      <c r="AH2">
+        <v>1.17</v>
+      </c>
+      <c r="AI2">
+        <v>0.258</v>
+      </c>
+      <c r="AJ2">
+        <v>52.9</v>
+      </c>
+      <c r="AK2">
+        <v>52.9</v>
+      </c>
+      <c r="AL2">
+        <v>1.33</v>
+      </c>
+      <c r="AM2">
+        <v>52.89999999999999</v>
+      </c>
+      <c r="AN2">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.05843076096327017</v>
+      </c>
+      <c r="C2">
+        <v>69.43029613130568</v>
+      </c>
+      <c r="D2">
+        <v>69.34629613130568</v>
+      </c>
+      <c r="E2">
+        <v>-52.9</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>7.09</v>
+      </c>
+      <c r="K2">
+        <v>1.17</v>
+      </c>
+      <c r="L2">
+        <v>5.92</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>5.92</v>
+      </c>
+      <c r="O2">
+        <v>1.3024</v>
+      </c>
+      <c r="P2">
+        <v>4.617599999999999</v>
+      </c>
+      <c r="Q2">
+        <v>5.787599999999999</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.05843076096327017</v>
+      </c>
+      <c r="T2">
+        <v>1.040905952611656</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.22</v>
+      </c>
+      <c r="W2">
+        <v>0.012636</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.05835603328915098</v>
+      </c>
+      <c r="C3">
+        <v>68.76765607237165</v>
+      </c>
+      <c r="D3">
+        <v>69.41265607237165</v>
+      </c>
+      <c r="E3">
+        <v>-52.171</v>
+      </c>
+      <c r="F3">
+        <v>0.7290000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>7.09</v>
+      </c>
+      <c r="K3">
+        <v>1.17</v>
+      </c>
+      <c r="L3">
+        <v>5.92</v>
+      </c>
+      <c r="M3">
+        <v>0.0118098</v>
+      </c>
+      <c r="N3">
+        <v>5.9081902</v>
+      </c>
+      <c r="O3">
+        <v>1.299801844</v>
+      </c>
+      <c r="P3">
+        <v>4.608388356</v>
+      </c>
+      <c r="Q3">
+        <v>5.778388356</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.05881785180722321</v>
+      </c>
+      <c r="T3">
+        <v>1.049107029814051</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.22</v>
+      </c>
+      <c r="W3">
+        <v>0.012636</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>501.2785991295365</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.05828130561503177</v>
+      </c>
+      <c r="C4">
+        <v>68.1051431394721</v>
+      </c>
+      <c r="D4">
+        <v>69.4791431394721</v>
+      </c>
+      <c r="E4">
+        <v>-51.442</v>
+      </c>
+      <c r="F4">
+        <v>1.458</v>
+      </c>
+      <c r="G4">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>7.09</v>
+      </c>
+      <c r="K4">
+        <v>1.17</v>
+      </c>
+      <c r="L4">
+        <v>5.92</v>
+      </c>
+      <c r="M4">
+        <v>0.0236196</v>
+      </c>
+      <c r="N4">
+        <v>5.8963804</v>
+      </c>
+      <c r="O4">
+        <v>1.297203688</v>
+      </c>
+      <c r="P4">
+        <v>4.599176712</v>
+      </c>
+      <c r="Q4">
+        <v>5.769176712</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.05921284246431814</v>
+      </c>
+      <c r="T4">
+        <v>1.057475475938944</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.22</v>
+      </c>
+      <c r="W4">
+        <v>0.012636</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>250.6392995647682</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.05820657794091258</v>
+      </c>
+      <c r="C5">
+        <v>67.44275769826113</v>
+      </c>
+      <c r="D5">
+        <v>69.54575769826113</v>
+      </c>
+      <c r="E5">
+        <v>-50.713</v>
+      </c>
+      <c r="F5">
+        <v>2.187</v>
+      </c>
+      <c r="G5">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>7.09</v>
+      </c>
+      <c r="K5">
+        <v>1.17</v>
+      </c>
+      <c r="L5">
+        <v>5.92</v>
+      </c>
+      <c r="M5">
+        <v>0.0354294</v>
+      </c>
+      <c r="N5">
+        <v>5.8845706</v>
+      </c>
+      <c r="O5">
+        <v>1.294605532</v>
+      </c>
+      <c r="P5">
+        <v>4.589965068</v>
+      </c>
+      <c r="Q5">
+        <v>5.759965068</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.05961597725867276</v>
+      </c>
+      <c r="T5">
+        <v>1.066016467344762</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.22</v>
+      </c>
+      <c r="W5">
+        <v>0.012636</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>167.0928663765122</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.05813185026679338</v>
+      </c>
+      <c r="C6">
+        <v>66.78050011579651</v>
+      </c>
+      <c r="D6">
+        <v>69.61250011579651</v>
+      </c>
+      <c r="E6">
+        <v>-49.98399999999999</v>
+      </c>
+      <c r="F6">
+        <v>2.916</v>
+      </c>
+      <c r="G6">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>7.09</v>
+      </c>
+      <c r="K6">
+        <v>1.17</v>
+      </c>
+      <c r="L6">
+        <v>5.92</v>
+      </c>
+      <c r="M6">
+        <v>0.0472392</v>
+      </c>
+      <c r="N6">
+        <v>5.8727608</v>
+      </c>
+      <c r="O6">
+        <v>1.292007376</v>
+      </c>
+      <c r="P6">
+        <v>4.580753424</v>
+      </c>
+      <c r="Q6">
+        <v>5.750753424</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.06002751069457644</v>
+      </c>
+      <c r="T6">
+        <v>1.074735396071535</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.22</v>
+      </c>
+      <c r="W6">
+        <v>0.012636</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>125.3196497823841</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.0580571225926742</v>
+      </c>
+      <c r="C7">
+        <v>66.11837076054641</v>
+      </c>
+      <c r="D7">
+        <v>69.6793707605464</v>
+      </c>
+      <c r="E7">
+        <v>-49.255</v>
+      </c>
+      <c r="F7">
+        <v>3.645</v>
+      </c>
+      <c r="G7">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>7.09</v>
+      </c>
+      <c r="K7">
+        <v>1.17</v>
+      </c>
+      <c r="L7">
+        <v>5.92</v>
+      </c>
+      <c r="M7">
+        <v>0.059049</v>
+      </c>
+      <c r="N7">
+        <v>5.860951</v>
+      </c>
+      <c r="O7">
+        <v>1.28940922</v>
+      </c>
+      <c r="P7">
+        <v>4.57154178</v>
+      </c>
+      <c r="Q7">
+        <v>5.74154178</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.06044770799228863</v>
+      </c>
+      <c r="T7">
+        <v>1.083637881192556</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.22</v>
+      </c>
+      <c r="W7">
+        <v>0.012636</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>100.2557198259073</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.057982394918555</v>
+      </c>
+      <c r="C8">
+        <v>65.45637000239618</v>
+      </c>
+      <c r="D8">
+        <v>69.74637000239618</v>
+      </c>
+      <c r="E8">
+        <v>-48.526</v>
+      </c>
+      <c r="F8">
+        <v>4.374000000000001</v>
+      </c>
+      <c r="G8">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>7.09</v>
+      </c>
+      <c r="K8">
+        <v>1.17</v>
+      </c>
+      <c r="L8">
+        <v>5.92</v>
+      </c>
+      <c r="M8">
+        <v>0.0708588</v>
+      </c>
+      <c r="N8">
+        <v>5.8491412</v>
+      </c>
+      <c r="O8">
+        <v>1.286811064</v>
+      </c>
+      <c r="P8">
+        <v>4.562330136</v>
+      </c>
+      <c r="Q8">
+        <v>5.732330136</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.06087684565803723</v>
+      </c>
+      <c r="T8">
+        <v>1.092729780890619</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.22</v>
+      </c>
+      <c r="W8">
+        <v>0.012636</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>83.54643318825609</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.05790766724443581</v>
+      </c>
+      <c r="C9">
+        <v>64.79449821265516</v>
+      </c>
+      <c r="D9">
+        <v>69.81349821265515</v>
+      </c>
+      <c r="E9">
+        <v>-47.797</v>
+      </c>
+      <c r="F9">
+        <v>5.103000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>7.09</v>
+      </c>
+      <c r="K9">
+        <v>1.17</v>
+      </c>
+      <c r="L9">
+        <v>5.92</v>
+      </c>
+      <c r="M9">
+        <v>0.08266860000000001</v>
+      </c>
+      <c r="N9">
+        <v>5.8373314</v>
+      </c>
+      <c r="O9">
+        <v>1.284212908</v>
+      </c>
+      <c r="P9">
+        <v>4.553118492</v>
+      </c>
+      <c r="Q9">
+        <v>5.723118492</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.0613152120907912</v>
+      </c>
+      <c r="T9">
+        <v>1.102017205313373</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.22</v>
+      </c>
+      <c r="W9">
+        <v>0.012636</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>71.61122844707664</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.05783293957031662</v>
+      </c>
+      <c r="C10">
+        <v>64.13275576406357</v>
+      </c>
+      <c r="D10">
+        <v>69.88075576406358</v>
+      </c>
+      <c r="E10">
+        <v>-47.068</v>
+      </c>
+      <c r="F10">
+        <v>5.832000000000001</v>
+      </c>
+      <c r="G10">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H10">
+        <v>20</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>7.09</v>
+      </c>
+      <c r="K10">
+        <v>1.17</v>
+      </c>
+      <c r="L10">
+        <v>5.92</v>
+      </c>
+      <c r="M10">
+        <v>0.0944784</v>
+      </c>
+      <c r="N10">
+        <v>5.8255216</v>
+      </c>
+      <c r="O10">
+        <v>1.281614752</v>
+      </c>
+      <c r="P10">
+        <v>4.543906848</v>
+      </c>
+      <c r="Q10">
+        <v>5.713906848</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.06176310822860502</v>
+      </c>
+      <c r="T10">
+        <v>1.111506530267055</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.22</v>
+      </c>
+      <c r="W10">
+        <v>0.012636</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>62.65982489119206</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.05775821189619741</v>
+      </c>
+      <c r="C11">
+        <v>63.47114303079942</v>
+      </c>
+      <c r="D11">
+        <v>69.94814303079941</v>
+      </c>
+      <c r="E11">
+        <v>-46.339</v>
+      </c>
+      <c r="F11">
+        <v>6.561</v>
+      </c>
+      <c r="G11">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H11">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>7.09</v>
+      </c>
+      <c r="K11">
+        <v>1.17</v>
+      </c>
+      <c r="L11">
+        <v>5.92</v>
+      </c>
+      <c r="M11">
+        <v>0.1062882</v>
+      </c>
+      <c r="N11">
+        <v>5.8137118</v>
+      </c>
+      <c r="O11">
+        <v>1.279016596</v>
+      </c>
+      <c r="P11">
+        <v>4.534695204</v>
+      </c>
+      <c r="Q11">
+        <v>5.704695204</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.06222084823757958</v>
+      </c>
+      <c r="T11">
+        <v>1.121204411813127</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.22</v>
+      </c>
+      <c r="W11">
+        <v>0.012636</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>55.69762212550405</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.05768348422207822</v>
+      </c>
+      <c r="C12">
+        <v>62.80966038848533</v>
+      </c>
+      <c r="D12">
+        <v>70.01566038848533</v>
+      </c>
+      <c r="E12">
+        <v>-45.61</v>
+      </c>
+      <c r="F12">
+        <v>7.290000000000001</v>
+      </c>
+      <c r="G12">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>7.09</v>
+      </c>
+      <c r="K12">
+        <v>1.17</v>
+      </c>
+      <c r="L12">
+        <v>5.92</v>
+      </c>
+      <c r="M12">
+        <v>0.118098</v>
+      </c>
+      <c r="N12">
+        <v>5.801902</v>
+      </c>
+      <c r="O12">
+        <v>1.27641844</v>
+      </c>
+      <c r="P12">
+        <v>4.52548356</v>
+      </c>
+      <c r="Q12">
+        <v>5.69548356</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.06268876024675359</v>
+      </c>
+      <c r="T12">
+        <v>1.131117801838</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.22</v>
+      </c>
+      <c r="W12">
+        <v>0.012636</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>50.12785991295365</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.05760875654795904</v>
+      </c>
+      <c r="C13">
+        <v>62.14830821419567</v>
+      </c>
+      <c r="D13">
+        <v>70.08330821419567</v>
+      </c>
+      <c r="E13">
+        <v>-44.881</v>
+      </c>
+      <c r="F13">
+        <v>8.019</v>
+      </c>
+      <c r="G13">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>7.09</v>
+      </c>
+      <c r="K13">
+        <v>1.17</v>
+      </c>
+      <c r="L13">
+        <v>5.92</v>
+      </c>
+      <c r="M13">
+        <v>0.1299078</v>
+      </c>
+      <c r="N13">
+        <v>5.7900922</v>
+      </c>
+      <c r="O13">
+        <v>1.273820284</v>
+      </c>
+      <c r="P13">
+        <v>4.516271916</v>
+      </c>
+      <c r="Q13">
+        <v>5.686271916</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.06316718713253824</v>
+      </c>
+      <c r="T13">
+        <v>1.14125396467242</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.22</v>
+      </c>
+      <c r="W13">
+        <v>0.012636</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>45.57078173904878</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.05753402887383985</v>
+      </c>
+      <c r="C14">
+        <v>61.4870868864635</v>
+      </c>
+      <c r="D14">
+        <v>70.1510868864635</v>
+      </c>
+      <c r="E14">
+        <v>-44.152</v>
+      </c>
+      <c r="F14">
+        <v>8.748000000000001</v>
+      </c>
+      <c r="G14">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H14">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>7.09</v>
+      </c>
+      <c r="K14">
+        <v>1.17</v>
+      </c>
+      <c r="L14">
+        <v>5.92</v>
+      </c>
+      <c r="M14">
+        <v>0.1417176</v>
+      </c>
+      <c r="N14">
+        <v>5.7782824</v>
+      </c>
+      <c r="O14">
+        <v>1.271222128</v>
+      </c>
+      <c r="P14">
+        <v>4.507060272</v>
+      </c>
+      <c r="Q14">
+        <v>5.677060272</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.06365648735663619</v>
+      </c>
+      <c r="T14">
+        <v>1.151620494843987</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.22</v>
+      </c>
+      <c r="W14">
+        <v>0.012636</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>41.77321659412804</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.05745930119972065</v>
+      </c>
+      <c r="C15">
+        <v>60.82599678528763</v>
+      </c>
+      <c r="D15">
+        <v>70.21899678528763</v>
+      </c>
+      <c r="E15">
+        <v>-43.423</v>
+      </c>
+      <c r="F15">
+        <v>9.477</v>
+      </c>
+      <c r="G15">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>7.09</v>
+      </c>
+      <c r="K15">
+        <v>1.17</v>
+      </c>
+      <c r="L15">
+        <v>5.92</v>
+      </c>
+      <c r="M15">
+        <v>0.1535274</v>
+      </c>
+      <c r="N15">
+        <v>5.7664726</v>
+      </c>
+      <c r="O15">
+        <v>1.268623972</v>
+      </c>
+      <c r="P15">
+        <v>4.497848628</v>
+      </c>
+      <c r="Q15">
+        <v>5.667848628</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.06415703586174787</v>
+      </c>
+      <c r="T15">
+        <v>1.16222533605398</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.22</v>
+      </c>
+      <c r="W15">
+        <v>0.012636</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>38.55989224073357</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.05738457352560145</v>
+      </c>
+      <c r="C16">
+        <v>60.16503829213971</v>
+      </c>
+      <c r="D16">
+        <v>70.28703829213971</v>
+      </c>
+      <c r="E16">
+        <v>-42.694</v>
+      </c>
+      <c r="F16">
+        <v>10.206</v>
+      </c>
+      <c r="G16">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H16">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>7.09</v>
+      </c>
+      <c r="K16">
+        <v>1.17</v>
+      </c>
+      <c r="L16">
+        <v>5.92</v>
+      </c>
+      <c r="M16">
+        <v>0.1653372</v>
+      </c>
+      <c r="N16">
+        <v>5.7546628</v>
+      </c>
+      <c r="O16">
+        <v>1.266025816</v>
+      </c>
+      <c r="P16">
+        <v>4.488636984</v>
+      </c>
+      <c r="Q16">
+        <v>5.658636984</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.06466922502976913</v>
+      </c>
+      <c r="T16">
+        <v>1.17307680147816</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.22</v>
+      </c>
+      <c r="W16">
+        <v>0.012636</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>35.80561422353832</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.05730984585148226</v>
+      </c>
+      <c r="C17">
+        <v>59.50421178997142</v>
+      </c>
+      <c r="D17">
+        <v>70.35521178997142</v>
+      </c>
+      <c r="E17">
+        <v>-41.965</v>
+      </c>
+      <c r="F17">
+        <v>10.935</v>
+      </c>
+      <c r="G17">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H17">
+        <v>20</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>7.09</v>
+      </c>
+      <c r="K17">
+        <v>1.17</v>
+      </c>
+      <c r="L17">
+        <v>5.92</v>
+      </c>
+      <c r="M17">
+        <v>0.177147</v>
+      </c>
+      <c r="N17">
+        <v>5.742853</v>
+      </c>
+      <c r="O17">
+        <v>1.26342766</v>
+      </c>
+      <c r="P17">
+        <v>4.479425340000001</v>
+      </c>
+      <c r="Q17">
+        <v>5.649425340000001</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.06519346570762619</v>
+      </c>
+      <c r="T17">
+        <v>1.184183595500555</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.22</v>
+      </c>
+      <c r="W17">
+        <v>0.012636</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>33.41857327530244</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.05723511817736306</v>
+      </c>
+      <c r="C18">
+        <v>58.84351766322165</v>
+      </c>
+      <c r="D18">
+        <v>70.42351766322165</v>
+      </c>
+      <c r="E18">
+        <v>-41.236</v>
+      </c>
+      <c r="F18">
+        <v>11.664</v>
+      </c>
+      <c r="G18">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H18">
+        <v>20</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>7.09</v>
+      </c>
+      <c r="K18">
+        <v>1.17</v>
+      </c>
+      <c r="L18">
+        <v>5.92</v>
+      </c>
+      <c r="M18">
+        <v>0.1889568</v>
+      </c>
+      <c r="N18">
+        <v>5.7310432</v>
+      </c>
+      <c r="O18">
+        <v>1.260829504</v>
+      </c>
+      <c r="P18">
+        <v>4.470213696</v>
+      </c>
+      <c r="Q18">
+        <v>5.640213696</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.06573018830638461</v>
+      </c>
+      <c r="T18">
+        <v>1.195554836999674</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.22</v>
+      </c>
+      <c r="W18">
+        <v>0.012636</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>31.32991244559603</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.05716039050324387</v>
+      </c>
+      <c r="C19">
+        <v>58.18295629782362</v>
+      </c>
+      <c r="D19">
+        <v>70.49195629782362</v>
+      </c>
+      <c r="E19">
+        <v>-40.507</v>
+      </c>
+      <c r="F19">
+        <v>12.393</v>
+      </c>
+      <c r="G19">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H19">
+        <v>20</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>7.09</v>
+      </c>
+      <c r="K19">
+        <v>1.17</v>
+      </c>
+      <c r="L19">
+        <v>5.92</v>
+      </c>
+      <c r="M19">
+        <v>0.2007666</v>
+      </c>
+      <c r="N19">
+        <v>5.7192334</v>
+      </c>
+      <c r="O19">
+        <v>1.258231348</v>
+      </c>
+      <c r="P19">
+        <v>4.461002052</v>
+      </c>
+      <c r="Q19">
+        <v>5.631002052</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.06627984397981189</v>
+      </c>
+      <c r="T19">
+        <v>1.207200084318049</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.22</v>
+      </c>
+      <c r="W19">
+        <v>0.012636</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>29.4869764193845</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.05708566282912467</v>
+      </c>
+      <c r="C20">
+        <v>57.52252808121231</v>
+      </c>
+      <c r="D20">
+        <v>70.56052808121231</v>
+      </c>
+      <c r="E20">
+        <v>-39.778</v>
+      </c>
+      <c r="F20">
+        <v>13.122</v>
+      </c>
+      <c r="G20">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H20">
+        <v>20</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>7.09</v>
+      </c>
+      <c r="K20">
+        <v>1.17</v>
+      </c>
+      <c r="L20">
+        <v>5.92</v>
+      </c>
+      <c r="M20">
+        <v>0.2125764</v>
+      </c>
+      <c r="N20">
+        <v>5.7074236</v>
+      </c>
+      <c r="O20">
+        <v>1.255633192</v>
+      </c>
+      <c r="P20">
+        <v>4.451790408</v>
+      </c>
+      <c r="Q20">
+        <v>5.621790408</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.06684290588917642</v>
+      </c>
+      <c r="T20">
+        <v>1.219129362058823</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.22</v>
+      </c>
+      <c r="W20">
+        <v>0.012636</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>27.84881106275203</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.05701093515500548</v>
+      </c>
+      <c r="C21">
+        <v>56.8622334023317</v>
+      </c>
+      <c r="D21">
+        <v>70.62923340233169</v>
+      </c>
+      <c r="E21">
+        <v>-39.049</v>
+      </c>
+      <c r="F21">
+        <v>13.851</v>
+      </c>
+      <c r="G21">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H21">
+        <v>20</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>7.09</v>
+      </c>
+      <c r="K21">
+        <v>1.17</v>
+      </c>
+      <c r="L21">
+        <v>5.92</v>
+      </c>
+      <c r="M21">
+        <v>0.2243862</v>
+      </c>
+      <c r="N21">
+        <v>5.6956138</v>
+      </c>
+      <c r="O21">
+        <v>1.253035036</v>
+      </c>
+      <c r="P21">
+        <v>4.442578764</v>
+      </c>
+      <c r="Q21">
+        <v>5.612578764</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.06741987056173515</v>
+      </c>
+      <c r="T21">
+        <v>1.23135318986727</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.22</v>
+      </c>
+      <c r="W21">
+        <v>0.012636</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>26.38308416471245</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.05693620748088628</v>
+      </c>
+      <c r="C22">
+        <v>56.20207265164203</v>
+      </c>
+      <c r="D22">
+        <v>70.69807265164202</v>
+      </c>
+      <c r="E22">
+        <v>-38.31999999999999</v>
+      </c>
+      <c r="F22">
+        <v>14.58</v>
+      </c>
+      <c r="G22">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H22">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>7.09</v>
+      </c>
+      <c r="K22">
+        <v>1.17</v>
+      </c>
+      <c r="L22">
+        <v>5.92</v>
+      </c>
+      <c r="M22">
+        <v>0.236196</v>
+      </c>
+      <c r="N22">
+        <v>5.683804</v>
+      </c>
+      <c r="O22">
+        <v>1.25043688</v>
+      </c>
+      <c r="P22">
+        <v>4.43336712</v>
+      </c>
+      <c r="Q22">
+        <v>5.60336712</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.06801125935110786</v>
+      </c>
+      <c r="T22">
+        <v>1.243882613370929</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.22</v>
+      </c>
+      <c r="W22">
+        <v>0.012636</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>25.06392995647682</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.05686147980676708</v>
+      </c>
+      <c r="C23">
+        <v>55.54204622112738</v>
+      </c>
+      <c r="D23">
+        <v>70.76704622112737</v>
+      </c>
+      <c r="E23">
+        <v>-37.59099999999999</v>
+      </c>
+      <c r="F23">
+        <v>15.309</v>
+      </c>
+      <c r="G23">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H23">
+        <v>20</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>7.09</v>
+      </c>
+      <c r="K23">
+        <v>1.17</v>
+      </c>
+      <c r="L23">
+        <v>5.92</v>
+      </c>
+      <c r="M23">
+        <v>0.2480058</v>
+      </c>
+      <c r="N23">
+        <v>5.6719942</v>
+      </c>
+      <c r="O23">
+        <v>1.247838724</v>
+      </c>
+      <c r="P23">
+        <v>4.424155476</v>
+      </c>
+      <c r="Q23">
+        <v>5.594155476</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.06861762000856593</v>
+      </c>
+      <c r="T23">
+        <v>1.256729237469617</v>
+      </c>
+      <c r="U23">
+        <v>0.0162</v>
+      </c>
+      <c r="V23">
+        <v>0.22</v>
+      </c>
+      <c r="W23">
+        <v>0.012636</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>23.87040948235888</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.0567867521326479</v>
+      </c>
+      <c r="C24">
+        <v>54.88215450430295</v>
+      </c>
+      <c r="D24">
+        <v>70.83615450430294</v>
+      </c>
+      <c r="E24">
+        <v>-36.86199999999999</v>
+      </c>
+      <c r="F24">
+        <v>16.038</v>
+      </c>
+      <c r="G24">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H24">
+        <v>20</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>7.09</v>
+      </c>
+      <c r="K24">
+        <v>1.17</v>
+      </c>
+      <c r="L24">
+        <v>5.92</v>
+      </c>
+      <c r="M24">
+        <v>0.2598156</v>
+      </c>
+      <c r="N24">
+        <v>5.6601844</v>
+      </c>
+      <c r="O24">
+        <v>1.245240568</v>
+      </c>
+      <c r="P24">
+        <v>4.414943832000001</v>
+      </c>
+      <c r="Q24">
+        <v>5.584943832</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.06923952837518961</v>
+      </c>
+      <c r="T24">
+        <v>1.269905262186221</v>
+      </c>
+      <c r="U24">
+        <v>0.0162</v>
+      </c>
+      <c r="V24">
+        <v>0.22</v>
+      </c>
+      <c r="W24">
+        <v>0.012636</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>22.78539086952439</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.05671202445852871</v>
+      </c>
+      <c r="C25">
+        <v>54.22239789622264</v>
+      </c>
+      <c r="D25">
+        <v>70.90539789622264</v>
+      </c>
+      <c r="E25">
+        <v>-36.133</v>
+      </c>
+      <c r="F25">
+        <v>16.767</v>
+      </c>
+      <c r="G25">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H25">
+        <v>20</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>7.09</v>
+      </c>
+      <c r="K25">
+        <v>1.17</v>
+      </c>
+      <c r="L25">
+        <v>5.92</v>
+      </c>
+      <c r="M25">
+        <v>0.2716254</v>
+      </c>
+      <c r="N25">
+        <v>5.6483746</v>
+      </c>
+      <c r="O25">
+        <v>1.242642412</v>
+      </c>
+      <c r="P25">
+        <v>4.405732188</v>
+      </c>
+      <c r="Q25">
+        <v>5.575732188</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.06987759020588144</v>
+      </c>
+      <c r="T25">
+        <v>1.283423521311047</v>
+      </c>
+      <c r="U25">
+        <v>0.0162</v>
+      </c>
+      <c r="V25">
+        <v>0.22</v>
+      </c>
+      <c r="W25">
+        <v>0.012636</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>21.7947217012842</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.0566372967844095</v>
+      </c>
+      <c r="C26">
+        <v>53.56277679348656</v>
+      </c>
+      <c r="D26">
+        <v>70.97477679348655</v>
+      </c>
+      <c r="E26">
+        <v>-35.404</v>
+      </c>
+      <c r="F26">
+        <v>17.496</v>
+      </c>
+      <c r="G26">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H26">
+        <v>20</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>7.09</v>
+      </c>
+      <c r="K26">
+        <v>1.17</v>
+      </c>
+      <c r="L26">
+        <v>5.92</v>
+      </c>
+      <c r="M26">
+        <v>0.2834352</v>
+      </c>
+      <c r="N26">
+        <v>5.6365648</v>
+      </c>
+      <c r="O26">
+        <v>1.240044256</v>
+      </c>
+      <c r="P26">
+        <v>4.396520544</v>
+      </c>
+      <c r="Q26">
+        <v>5.566520544</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.07053244313738093</v>
+      </c>
+      <c r="T26">
+        <v>1.297297524097054</v>
+      </c>
+      <c r="U26">
+        <v>0.0162</v>
+      </c>
+      <c r="V26">
+        <v>0.22</v>
+      </c>
+      <c r="W26">
+        <v>0.012636</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>20.88660829706402</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.05656256911029032</v>
+      </c>
+      <c r="C27">
+        <v>52.90329159424854</v>
+      </c>
+      <c r="D27">
+        <v>71.04429159424853</v>
+      </c>
+      <c r="E27">
+        <v>-34.675</v>
+      </c>
+      <c r="F27">
+        <v>18.225</v>
+      </c>
+      <c r="G27">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H27">
+        <v>20</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>7.09</v>
+      </c>
+      <c r="K27">
+        <v>1.17</v>
+      </c>
+      <c r="L27">
+        <v>5.92</v>
+      </c>
+      <c r="M27">
+        <v>0.295245</v>
+      </c>
+      <c r="N27">
+        <v>5.624755</v>
+      </c>
+      <c r="O27">
+        <v>1.2374461</v>
+      </c>
+      <c r="P27">
+        <v>4.387308900000001</v>
+      </c>
+      <c r="Q27">
+        <v>5.557308900000001</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.07120475881372042</v>
+      </c>
+      <c r="T27">
+        <v>1.311541500290687</v>
+      </c>
+      <c r="U27">
+        <v>0.0162</v>
+      </c>
+      <c r="V27">
+        <v>0.22</v>
+      </c>
+      <c r="W27">
+        <v>0.012636</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>20.05114396518146</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.05648784143617112</v>
+      </c>
+      <c r="C28">
+        <v>52.24394269822383</v>
+      </c>
+      <c r="D28">
+        <v>71.11394269822382</v>
+      </c>
+      <c r="E28">
+        <v>-33.946</v>
+      </c>
+      <c r="F28">
+        <v>18.954</v>
+      </c>
+      <c r="G28">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H28">
+        <v>20</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>7.09</v>
+      </c>
+      <c r="K28">
+        <v>1.17</v>
+      </c>
+      <c r="L28">
+        <v>5.92</v>
+      </c>
+      <c r="M28">
+        <v>0.3070548</v>
+      </c>
+      <c r="N28">
+        <v>5.6129452</v>
+      </c>
+      <c r="O28">
+        <v>1.234847944</v>
+      </c>
+      <c r="P28">
+        <v>4.378097255999999</v>
+      </c>
+      <c r="Q28">
+        <v>5.548097255999999</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.07189524518401502</v>
+      </c>
+      <c r="T28">
+        <v>1.326170448813878</v>
+      </c>
+      <c r="U28">
+        <v>0.0162</v>
+      </c>
+      <c r="V28">
+        <v>0.22</v>
+      </c>
+      <c r="W28">
+        <v>0.012636</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>19.27994612036678</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.05641311376205193</v>
+      </c>
+      <c r="C29">
+        <v>51.58473050669669</v>
+      </c>
+      <c r="D29">
+        <v>71.18373050669669</v>
+      </c>
+      <c r="E29">
+        <v>-33.217</v>
+      </c>
+      <c r="F29">
+        <v>19.683</v>
+      </c>
+      <c r="G29">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H29">
+        <v>20</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>7.09</v>
+      </c>
+      <c r="K29">
+        <v>1.17</v>
+      </c>
+      <c r="L29">
+        <v>5.92</v>
+      </c>
+      <c r="M29">
+        <v>0.3188646000000001</v>
+      </c>
+      <c r="N29">
+        <v>5.6011354</v>
+      </c>
+      <c r="O29">
+        <v>1.232249788</v>
+      </c>
+      <c r="P29">
+        <v>4.368885612</v>
+      </c>
+      <c r="Q29">
+        <v>5.538885612</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.07260464898911223</v>
+      </c>
+      <c r="T29">
+        <v>1.341200190447293</v>
+      </c>
+      <c r="U29">
+        <v>0.0162</v>
+      </c>
+      <c r="V29">
+        <v>0.22</v>
+      </c>
+      <c r="W29">
+        <v>0.012636</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>18.56587404183468</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.05633838608793273</v>
+      </c>
+      <c r="C30">
+        <v>50.92565542252819</v>
+      </c>
+      <c r="D30">
+        <v>71.2536554225282</v>
+      </c>
+      <c r="E30">
+        <v>-32.488</v>
+      </c>
+      <c r="F30">
+        <v>20.412</v>
+      </c>
+      <c r="G30">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H30">
+        <v>20</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>7.09</v>
+      </c>
+      <c r="K30">
+        <v>1.17</v>
+      </c>
+      <c r="L30">
+        <v>5.92</v>
+      </c>
+      <c r="M30">
+        <v>0.3306744</v>
+      </c>
+      <c r="N30">
+        <v>5.5893256</v>
+      </c>
+      <c r="O30">
+        <v>1.229651632</v>
+      </c>
+      <c r="P30">
+        <v>4.359673967999999</v>
+      </c>
+      <c r="Q30">
+        <v>5.529673967999999</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.07333375845546213</v>
+      </c>
+      <c r="T30">
+        <v>1.356647424903859</v>
+      </c>
+      <c r="U30">
+        <v>0.0162</v>
+      </c>
+      <c r="V30">
+        <v>0.22</v>
+      </c>
+      <c r="W30">
+        <v>0.012636</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>17.90280711176916</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.05626365841381354</v>
+      </c>
+      <c r="C31">
+        <v>50.26671785016386</v>
+      </c>
+      <c r="D31">
+        <v>71.32371785016386</v>
+      </c>
+      <c r="E31">
+        <v>-31.759</v>
+      </c>
+      <c r="F31">
+        <v>21.141</v>
+      </c>
+      <c r="G31">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H31">
+        <v>20</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>7.09</v>
+      </c>
+      <c r="K31">
+        <v>1.17</v>
+      </c>
+      <c r="L31">
+        <v>5.92</v>
+      </c>
+      <c r="M31">
+        <v>0.3424842</v>
+      </c>
+      <c r="N31">
+        <v>5.5775158</v>
+      </c>
+      <c r="O31">
+        <v>1.227053476</v>
+      </c>
+      <c r="P31">
+        <v>4.350462324</v>
+      </c>
+      <c r="Q31">
+        <v>5.520462323999999</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.07408340621663879</v>
+      </c>
+      <c r="T31">
+        <v>1.372529792725398</v>
+      </c>
+      <c r="U31">
+        <v>0.0162</v>
+      </c>
+      <c r="V31">
+        <v>0.22</v>
+      </c>
+      <c r="W31">
+        <v>0.012636</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>17.28546893550126</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.05618893073969433</v>
+      </c>
+      <c r="C32">
+        <v>49.60791819564156</v>
+      </c>
+      <c r="D32">
+        <v>71.39391819564156</v>
+      </c>
+      <c r="E32">
+        <v>-31.03</v>
+      </c>
+      <c r="F32">
+        <v>21.87</v>
+      </c>
+      <c r="G32">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H32">
+        <v>20</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>7.09</v>
+      </c>
+      <c r="K32">
+        <v>1.17</v>
+      </c>
+      <c r="L32">
+        <v>5.92</v>
+      </c>
+      <c r="M32">
+        <v>0.354294</v>
+      </c>
+      <c r="N32">
+        <v>5.565706</v>
+      </c>
+      <c r="O32">
+        <v>1.22445532</v>
+      </c>
+      <c r="P32">
+        <v>4.34125068</v>
+      </c>
+      <c r="Q32">
+        <v>5.51125068</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.07485447248527763</v>
+      </c>
+      <c r="T32">
+        <v>1.388865942484696</v>
+      </c>
+      <c r="U32">
+        <v>0.0162</v>
+      </c>
+      <c r="V32">
+        <v>0.22</v>
+      </c>
+      <c r="W32">
+        <v>0.012636</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>16.70928663765122</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.05611420306557515</v>
+      </c>
+      <c r="C33">
+        <v>48.94925686659923</v>
+      </c>
+      <c r="D33">
+        <v>71.46425686659923</v>
+      </c>
+      <c r="E33">
+        <v>-30.301</v>
+      </c>
+      <c r="F33">
+        <v>22.599</v>
+      </c>
+      <c r="G33">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H33">
+        <v>20</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>7.09</v>
+      </c>
+      <c r="K33">
+        <v>1.17</v>
+      </c>
+      <c r="L33">
+        <v>5.92</v>
+      </c>
+      <c r="M33">
+        <v>0.3661038</v>
+      </c>
+      <c r="N33">
+        <v>5.5538962</v>
+      </c>
+      <c r="O33">
+        <v>1.221857164</v>
+      </c>
+      <c r="P33">
+        <v>4.332039035999999</v>
+      </c>
+      <c r="Q33">
+        <v>5.502039035999999</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.07564788850083355</v>
+      </c>
+      <c r="T33">
+        <v>1.405675603831219</v>
+      </c>
+      <c r="U33">
+        <v>0.0162</v>
+      </c>
+      <c r="V33">
+        <v>0.22</v>
+      </c>
+      <c r="W33">
+        <v>0.012636</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>16.17027739127537</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.05603947539145596</v>
+      </c>
+      <c r="C34">
+        <v>48.29073427228293</v>
+      </c>
+      <c r="D34">
+        <v>71.53473427228293</v>
+      </c>
+      <c r="E34">
+        <v>-29.572</v>
+      </c>
+      <c r="F34">
+        <v>23.328</v>
+      </c>
+      <c r="G34">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H34">
+        <v>20</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>7.09</v>
+      </c>
+      <c r="K34">
+        <v>1.17</v>
+      </c>
+      <c r="L34">
+        <v>5.92</v>
+      </c>
+      <c r="M34">
+        <v>0.3779136</v>
+      </c>
+      <c r="N34">
+        <v>5.5420864</v>
+      </c>
+      <c r="O34">
+        <v>1.219259008</v>
+      </c>
+      <c r="P34">
+        <v>4.322827392</v>
+      </c>
+      <c r="Q34">
+        <v>5.492827392</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.07646464028155288</v>
+      </c>
+      <c r="T34">
+        <v>1.422979666982052</v>
+      </c>
+      <c r="U34">
+        <v>0.0162</v>
+      </c>
+      <c r="V34">
+        <v>0.22</v>
+      </c>
+      <c r="W34">
+        <v>0.012636</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>15.66495622279801</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.05596474771733676</v>
+      </c>
+      <c r="C35">
+        <v>47.63235082355465</v>
+      </c>
+      <c r="D35">
+        <v>71.60535082355464</v>
+      </c>
+      <c r="E35">
+        <v>-28.843</v>
+      </c>
+      <c r="F35">
+        <v>24.057</v>
+      </c>
+      <c r="G35">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H35">
+        <v>20</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>7.09</v>
+      </c>
+      <c r="K35">
+        <v>1.17</v>
+      </c>
+      <c r="L35">
+        <v>5.92</v>
+      </c>
+      <c r="M35">
+        <v>0.3897234</v>
+      </c>
+      <c r="N35">
+        <v>5.5302766</v>
+      </c>
+      <c r="O35">
+        <v>1.216660852</v>
+      </c>
+      <c r="P35">
+        <v>4.313615748</v>
+      </c>
+      <c r="Q35">
+        <v>5.483615748</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.07730577271244293</v>
+      </c>
+      <c r="T35">
+        <v>1.440800269331418</v>
+      </c>
+      <c r="U35">
+        <v>0.0162</v>
+      </c>
+      <c r="V35">
+        <v>0.22</v>
+      </c>
+      <c r="W35">
+        <v>0.012636</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>15.19026057968292</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.05589002004321755</v>
+      </c>
+      <c r="C36">
+        <v>46.97410693290036</v>
+      </c>
+      <c r="D36">
+        <v>71.67610693290035</v>
+      </c>
+      <c r="E36">
+        <v>-28.11399999999999</v>
+      </c>
+      <c r="F36">
+        <v>24.786</v>
+      </c>
+      <c r="G36">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H36">
+        <v>20</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>7.09</v>
+      </c>
+      <c r="K36">
+        <v>1.17</v>
+      </c>
+      <c r="L36">
+        <v>5.92</v>
+      </c>
+      <c r="M36">
+        <v>0.4015332</v>
+      </c>
+      <c r="N36">
+        <v>5.5184668</v>
+      </c>
+      <c r="O36">
+        <v>1.214062696</v>
+      </c>
+      <c r="P36">
+        <v>4.304404104</v>
+      </c>
+      <c r="Q36">
+        <v>5.474404104</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.07817239400487509</v>
+      </c>
+      <c r="T36">
+        <v>1.459160889933794</v>
+      </c>
+      <c r="U36">
+        <v>0.0162</v>
+      </c>
+      <c r="V36">
+        <v>0.22</v>
+      </c>
+      <c r="W36">
+        <v>0.012636</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>14.74348820969225</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.05581529236909837</v>
+      </c>
+      <c r="C37">
+        <v>46.31600301443794</v>
+      </c>
+      <c r="D37">
+        <v>71.74700301443794</v>
+      </c>
+      <c r="E37">
+        <v>-27.38499999999999</v>
+      </c>
+      <c r="F37">
+        <v>25.515</v>
+      </c>
+      <c r="G37">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H37">
+        <v>20</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>7.09</v>
+      </c>
+      <c r="K37">
+        <v>1.17</v>
+      </c>
+      <c r="L37">
+        <v>5.92</v>
+      </c>
+      <c r="M37">
+        <v>0.4133430000000001</v>
+      </c>
+      <c r="N37">
+        <v>5.506657</v>
+      </c>
+      <c r="O37">
+        <v>1.21146454</v>
+      </c>
+      <c r="P37">
+        <v>4.29519246</v>
+      </c>
+      <c r="Q37">
+        <v>5.46519246</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.07906568056784366</v>
+      </c>
+      <c r="T37">
+        <v>1.478086452708552</v>
+      </c>
+      <c r="U37">
+        <v>0.0162</v>
+      </c>
+      <c r="V37">
+        <v>0.22</v>
+      </c>
+      <c r="W37">
+        <v>0.012636</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>14.32224568941533</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.05574056469497918</v>
+      </c>
+      <c r="C38">
+        <v>45.65803948392545</v>
+      </c>
+      <c r="D38">
+        <v>71.81803948392545</v>
+      </c>
+      <c r="E38">
+        <v>-26.656</v>
+      </c>
+      <c r="F38">
+        <v>26.244</v>
+      </c>
+      <c r="G38">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H38">
+        <v>20</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>7.09</v>
+      </c>
+      <c r="K38">
+        <v>1.17</v>
+      </c>
+      <c r="L38">
+        <v>5.92</v>
+      </c>
+      <c r="M38">
+        <v>0.4251528</v>
+      </c>
+      <c r="N38">
+        <v>5.4948472</v>
+      </c>
+      <c r="O38">
+        <v>1.208866384</v>
+      </c>
+      <c r="P38">
+        <v>4.285980815999999</v>
+      </c>
+      <c r="Q38">
+        <v>5.455980815999999</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.07998688233590497</v>
+      </c>
+      <c r="T38">
+        <v>1.49760343932002</v>
+      </c>
+      <c r="U38">
+        <v>0.0162</v>
+      </c>
+      <c r="V38">
+        <v>0.22</v>
+      </c>
+      <c r="W38">
+        <v>0.012636</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>13.92440553137601</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.05612759702085997</v>
+      </c>
+      <c r="C39">
+        <v>44.56263938970494</v>
+      </c>
+      <c r="D39">
+        <v>71.45163938970494</v>
+      </c>
+      <c r="E39">
+        <v>-25.927</v>
+      </c>
+      <c r="F39">
+        <v>26.973</v>
+      </c>
+      <c r="G39">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H39">
+        <v>20</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>7.09</v>
+      </c>
+      <c r="K39">
+        <v>1.17</v>
+      </c>
+      <c r="L39">
+        <v>5.92</v>
+      </c>
+      <c r="M39">
+        <v>0.4801194</v>
+      </c>
+      <c r="N39">
+        <v>5.4398806</v>
+      </c>
+      <c r="O39">
+        <v>1.196773732</v>
+      </c>
+      <c r="P39">
+        <v>4.243106868</v>
+      </c>
+      <c r="Q39">
+        <v>5.413106868</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.08093732860453964</v>
+      </c>
+      <c r="T39">
+        <v>1.517740012808043</v>
+      </c>
+      <c r="U39">
+        <v>0.0178</v>
+      </c>
+      <c r="V39">
+        <v>0.22</v>
+      </c>
+      <c r="W39">
+        <v>0.013884</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>12.33026617962115</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.05606534934674079</v>
+      </c>
+      <c r="C40">
+        <v>43.89231621638075</v>
+      </c>
+      <c r="D40">
+        <v>71.51031621638074</v>
+      </c>
+      <c r="E40">
+        <v>-25.198</v>
+      </c>
+      <c r="F40">
+        <v>27.702</v>
+      </c>
+      <c r="G40">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H40">
+        <v>20</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>7.09</v>
+      </c>
+      <c r="K40">
+        <v>1.17</v>
+      </c>
+      <c r="L40">
+        <v>5.92</v>
+      </c>
+      <c r="M40">
+        <v>0.4930956</v>
+      </c>
+      <c r="N40">
+        <v>5.4269044</v>
+      </c>
+      <c r="O40">
+        <v>1.193918968</v>
+      </c>
+      <c r="P40">
+        <v>4.232985432</v>
+      </c>
+      <c r="Q40">
+        <v>5.402985431999999</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.08191843443022707</v>
+      </c>
+      <c r="T40">
+        <v>1.538526153182777</v>
+      </c>
+      <c r="U40">
+        <v>0.0178</v>
+      </c>
+      <c r="V40">
+        <v>0.22</v>
+      </c>
+      <c r="W40">
+        <v>0.013884</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>12.00578549068375</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.0560031016726216</v>
+      </c>
+      <c r="C41">
+        <v>43.22208949429953</v>
+      </c>
+      <c r="D41">
+        <v>71.56908949429953</v>
+      </c>
+      <c r="E41">
+        <v>-24.46899999999999</v>
+      </c>
+      <c r="F41">
+        <v>28.431</v>
+      </c>
+      <c r="G41">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H41">
+        <v>20</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>7.09</v>
+      </c>
+      <c r="K41">
+        <v>1.17</v>
+      </c>
+      <c r="L41">
+        <v>5.92</v>
+      </c>
+      <c r="M41">
+        <v>0.5060718000000001</v>
+      </c>
+      <c r="N41">
+        <v>5.4139282</v>
+      </c>
+      <c r="O41">
+        <v>1.191064204</v>
+      </c>
+      <c r="P41">
+        <v>4.222863996</v>
+      </c>
+      <c r="Q41">
+        <v>5.392863996</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.08293170766003541</v>
+      </c>
+      <c r="T41">
+        <v>1.559993806356682</v>
+      </c>
+      <c r="U41">
+        <v>0.0178</v>
+      </c>
+      <c r="V41">
+        <v>0.22</v>
+      </c>
+      <c r="W41">
+        <v>0.013884</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>11.69794483707648</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.0559408539985024</v>
+      </c>
+      <c r="C42">
+        <v>42.55195946147246</v>
+      </c>
+      <c r="D42">
+        <v>71.62795946147246</v>
+      </c>
+      <c r="E42">
+        <v>-23.73999999999999</v>
+      </c>
+      <c r="F42">
+        <v>29.16</v>
+      </c>
+      <c r="G42">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H42">
+        <v>20</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>7.09</v>
+      </c>
+      <c r="K42">
+        <v>1.17</v>
+      </c>
+      <c r="L42">
+        <v>5.92</v>
+      </c>
+      <c r="M42">
+        <v>0.5190480000000001</v>
+      </c>
+      <c r="N42">
+        <v>5.400952</v>
+      </c>
+      <c r="O42">
+        <v>1.18820944</v>
+      </c>
+      <c r="P42">
+        <v>4.212742560000001</v>
+      </c>
+      <c r="Q42">
+        <v>5.382742560000001</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.08397875666417066</v>
+      </c>
+      <c r="T42">
+        <v>1.582177047969717</v>
+      </c>
+      <c r="U42">
+        <v>0.0178</v>
+      </c>
+      <c r="V42">
+        <v>0.22</v>
+      </c>
+      <c r="W42">
+        <v>0.013884</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>11.40549621614957</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.0558786063243832</v>
+      </c>
+      <c r="C43">
+        <v>41.8819263566945</v>
+      </c>
+      <c r="D43">
+        <v>71.6869263566945</v>
+      </c>
+      <c r="E43">
+        <v>-23.011</v>
+      </c>
+      <c r="F43">
+        <v>29.889</v>
+      </c>
+      <c r="G43">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H43">
+        <v>20</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>7.09</v>
+      </c>
+      <c r="K43">
+        <v>1.17</v>
+      </c>
+      <c r="L43">
+        <v>5.92</v>
+      </c>
+      <c r="M43">
+        <v>0.5320242000000001</v>
+      </c>
+      <c r="N43">
+        <v>5.3879758</v>
+      </c>
+      <c r="O43">
+        <v>1.185354676</v>
+      </c>
+      <c r="P43">
+        <v>4.202621123999999</v>
+      </c>
+      <c r="Q43">
+        <v>5.372621123999999</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.08506129885488678</v>
+      </c>
+      <c r="T43">
+        <v>1.60511226387472</v>
+      </c>
+      <c r="U43">
+        <v>0.0178</v>
+      </c>
+      <c r="V43">
+        <v>0.22</v>
+      </c>
+      <c r="W43">
+        <v>0.013884</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>11.12731338160933</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.05581635865026401</v>
+      </c>
+      <c r="C44">
+        <v>41.21199041954758</v>
+      </c>
+      <c r="D44">
+        <v>71.74599041954758</v>
+      </c>
+      <c r="E44">
+        <v>-22.282</v>
+      </c>
+      <c r="F44">
+        <v>30.618</v>
+      </c>
+      <c r="G44">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H44">
+        <v>20</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>7.09</v>
+      </c>
+      <c r="K44">
+        <v>1.17</v>
+      </c>
+      <c r="L44">
+        <v>5.92</v>
+      </c>
+      <c r="M44">
+        <v>0.5450004000000001</v>
+      </c>
+      <c r="N44">
+        <v>5.3749996</v>
+      </c>
+      <c r="O44">
+        <v>1.182499912</v>
+      </c>
+      <c r="P44">
+        <v>4.192499688</v>
+      </c>
+      <c r="Q44">
+        <v>5.362499688</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.08618117008666208</v>
+      </c>
+      <c r="T44">
+        <v>1.628838349293688</v>
+      </c>
+      <c r="U44">
+        <v>0.0178</v>
+      </c>
+      <c r="V44">
+        <v>0.22</v>
+      </c>
+      <c r="W44">
+        <v>0.013884</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>10.86237734871387</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.05649199097614482</v>
+      </c>
+      <c r="C45">
+        <v>39.8470714731777</v>
+      </c>
+      <c r="D45">
+        <v>71.1100714731777</v>
+      </c>
+      <c r="E45">
+        <v>-21.553</v>
+      </c>
+      <c r="F45">
+        <v>31.347</v>
+      </c>
+      <c r="G45">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H45">
+        <v>20</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>7.09</v>
+      </c>
+      <c r="K45">
+        <v>1.17</v>
+      </c>
+      <c r="L45">
+        <v>5.92</v>
+      </c>
+      <c r="M45">
+        <v>0.6269399999999999</v>
+      </c>
+      <c r="N45">
+        <v>5.29306</v>
+      </c>
+      <c r="O45">
+        <v>1.1644732</v>
+      </c>
+      <c r="P45">
+        <v>4.1285868</v>
+      </c>
+      <c r="Q45">
+        <v>5.2985868</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.08734033504586809</v>
+      </c>
+      <c r="T45">
+        <v>1.653396928937883</v>
+      </c>
+      <c r="U45">
+        <v>0.02</v>
+      </c>
+      <c r="V45">
+        <v>0.22</v>
+      </c>
+      <c r="W45">
+        <v>0.0156</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>9.442689890579642</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.05644690330202563</v>
+      </c>
+      <c r="C46">
+        <v>39.16015766359104</v>
+      </c>
+      <c r="D46">
+        <v>71.15215766359104</v>
+      </c>
+      <c r="E46">
+        <v>-20.824</v>
+      </c>
+      <c r="F46">
+        <v>32.076</v>
+      </c>
+      <c r="G46">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H46">
+        <v>20</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>7.09</v>
+      </c>
+      <c r="K46">
+        <v>1.17</v>
+      </c>
+      <c r="L46">
+        <v>5.92</v>
+      </c>
+      <c r="M46">
+        <v>0.6415199999999999</v>
+      </c>
+      <c r="N46">
+        <v>5.27848</v>
+      </c>
+      <c r="O46">
+        <v>1.1612656</v>
+      </c>
+      <c r="P46">
+        <v>4.1172144</v>
+      </c>
+      <c r="Q46">
+        <v>5.2872144</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.08854089875361719</v>
+      </c>
+      <c r="T46">
+        <v>1.678832600712229</v>
+      </c>
+      <c r="U46">
+        <v>0.02</v>
+      </c>
+      <c r="V46">
+        <v>0.22</v>
+      </c>
+      <c r="W46">
+        <v>0.0156</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>9.228083302157378</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.05640181562790643</v>
+      </c>
+      <c r="C47">
+        <v>38.47329370056798</v>
+      </c>
+      <c r="D47">
+        <v>71.19429370056798</v>
+      </c>
+      <c r="E47">
+        <v>-20.09499999999999</v>
+      </c>
+      <c r="F47">
+        <v>32.80500000000001</v>
+      </c>
+      <c r="G47">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H47">
+        <v>20</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>7.09</v>
+      </c>
+      <c r="K47">
+        <v>1.17</v>
+      </c>
+      <c r="L47">
+        <v>5.92</v>
+      </c>
+      <c r="M47">
+        <v>0.6561</v>
+      </c>
+      <c r="N47">
+        <v>5.2639</v>
+      </c>
+      <c r="O47">
+        <v>1.158058</v>
+      </c>
+      <c r="P47">
+        <v>4.105842</v>
+      </c>
+      <c r="Q47">
+        <v>5.275842</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.08978511932346624</v>
+      </c>
+      <c r="T47">
+        <v>1.705193206005641</v>
+      </c>
+      <c r="U47">
+        <v>0.02</v>
+      </c>
+      <c r="V47">
+        <v>0.22</v>
+      </c>
+      <c r="W47">
+        <v>0.0156</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>9.023014784331655</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.05635672795378724</v>
+      </c>
+      <c r="C48">
+        <v>37.7864796727178</v>
+      </c>
+      <c r="D48">
+        <v>71.23647967271781</v>
+      </c>
+      <c r="E48">
+        <v>-19.36599999999999</v>
+      </c>
+      <c r="F48">
+        <v>33.53400000000001</v>
+      </c>
+      <c r="G48">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H48">
+        <v>20</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>7.09</v>
+      </c>
+      <c r="K48">
+        <v>1.17</v>
+      </c>
+      <c r="L48">
+        <v>5.92</v>
+      </c>
+      <c r="M48">
+        <v>0.6706800000000001</v>
+      </c>
+      <c r="N48">
+        <v>5.24932</v>
+      </c>
+      <c r="O48">
+        <v>1.1548504</v>
+      </c>
+      <c r="P48">
+        <v>4.0944696</v>
+      </c>
+      <c r="Q48">
+        <v>5.2644696</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.09107542213664302</v>
+      </c>
+      <c r="T48">
+        <v>1.732530130013623</v>
+      </c>
+      <c r="U48">
+        <v>0.02</v>
+      </c>
+      <c r="V48">
+        <v>0.22</v>
+      </c>
+      <c r="W48">
+        <v>0.0156</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>8.826862289020099</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.05631164027966804</v>
+      </c>
+      <c r="C49">
+        <v>37.09971566885997</v>
+      </c>
+      <c r="D49">
+        <v>71.27871566885997</v>
+      </c>
+      <c r="E49">
+        <v>-18.63699999999999</v>
+      </c>
+      <c r="F49">
+        <v>34.26300000000001</v>
+      </c>
+      <c r="G49">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H49">
+        <v>20</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>7.09</v>
+      </c>
+      <c r="K49">
+        <v>1.17</v>
+      </c>
+      <c r="L49">
+        <v>5.92</v>
+      </c>
+      <c r="M49">
+        <v>0.68526</v>
+      </c>
+      <c r="N49">
+        <v>5.23474</v>
+      </c>
+      <c r="O49">
+        <v>1.1516428</v>
+      </c>
+      <c r="P49">
+        <v>4.0830972</v>
+      </c>
+      <c r="Q49">
+        <v>5.2530972</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.09241441562201518</v>
+      </c>
+      <c r="T49">
+        <v>1.760898636059643</v>
+      </c>
+      <c r="U49">
+        <v>0.02</v>
+      </c>
+      <c r="V49">
+        <v>0.22</v>
+      </c>
+      <c r="W49">
+        <v>0.0156</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>8.639056708402652</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.05626655260554884</v>
+      </c>
+      <c r="C50">
+        <v>36.41300177802471</v>
+      </c>
+      <c r="D50">
+        <v>71.32100177802471</v>
+      </c>
+      <c r="E50">
+        <v>-17.90799999999999</v>
+      </c>
+      <c r="F50">
+        <v>34.992</v>
+      </c>
+      <c r="G50">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H50">
+        <v>20</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>7.09</v>
+      </c>
+      <c r="K50">
+        <v>1.17</v>
+      </c>
+      <c r="L50">
+        <v>5.92</v>
+      </c>
+      <c r="M50">
+        <v>0.69984</v>
+      </c>
+      <c r="N50">
+        <v>5.22016</v>
+      </c>
+      <c r="O50">
+        <v>1.1484352</v>
+      </c>
+      <c r="P50">
+        <v>4.0717248</v>
+      </c>
+      <c r="Q50">
+        <v>5.2417248</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.0938049088568247</v>
+      </c>
+      <c r="T50">
+        <v>1.790358238492049</v>
+      </c>
+      <c r="U50">
+        <v>0.02</v>
+      </c>
+      <c r="V50">
+        <v>0.22</v>
+      </c>
+      <c r="W50">
+        <v>0.0156</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>8.459076360310927</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.05622146493142965</v>
+      </c>
+      <c r="C51">
+        <v>35.72633808945363</v>
+      </c>
+      <c r="D51">
+        <v>71.36333808945363</v>
+      </c>
+      <c r="E51">
+        <v>-17.17899999999999</v>
+      </c>
+      <c r="F51">
+        <v>35.721</v>
+      </c>
+      <c r="G51">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H51">
+        <v>20</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>7.09</v>
+      </c>
+      <c r="K51">
+        <v>1.17</v>
+      </c>
+      <c r="L51">
+        <v>5.92</v>
+      </c>
+      <c r="M51">
+        <v>0.7144199999999999</v>
+      </c>
+      <c r="N51">
+        <v>5.20558</v>
+      </c>
+      <c r="O51">
+        <v>1.1452276</v>
+      </c>
+      <c r="P51">
+        <v>4.0603524</v>
+      </c>
+      <c r="Q51">
+        <v>5.2303524</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.09524993123809736</v>
+      </c>
+      <c r="T51">
+        <v>1.820973119451215</v>
+      </c>
+      <c r="U51">
+        <v>0.02</v>
+      </c>
+      <c r="V51">
+        <v>0.22</v>
+      </c>
+      <c r="W51">
+        <v>0.0156</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>8.286442148876013</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.05617637725731046</v>
+      </c>
+      <c r="C52">
+        <v>35.0397246926004</v>
+      </c>
+      <c r="D52">
+        <v>71.4057246926004</v>
+      </c>
+      <c r="E52">
+        <v>-16.45</v>
+      </c>
+      <c r="F52">
+        <v>36.45</v>
+      </c>
+      <c r="G52">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H52">
+        <v>20</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>7.09</v>
+      </c>
+      <c r="K52">
+        <v>1.17</v>
+      </c>
+      <c r="L52">
+        <v>5.92</v>
+      </c>
+      <c r="M52">
+        <v>0.729</v>
+      </c>
+      <c r="N52">
+        <v>5.191</v>
+      </c>
+      <c r="O52">
+        <v>1.14202</v>
+      </c>
+      <c r="P52">
+        <v>4.04898</v>
+      </c>
+      <c r="Q52">
+        <v>5.21898</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.09675275451462091</v>
+      </c>
+      <c r="T52">
+        <v>1.852812595648748</v>
+      </c>
+      <c r="U52">
+        <v>0.02</v>
+      </c>
+      <c r="V52">
+        <v>0.22</v>
+      </c>
+      <c r="W52">
+        <v>0.0156</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>8.120713305898491</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.05613128958319126</v>
+      </c>
+      <c r="C53">
+        <v>34.35316167713127</v>
+      </c>
+      <c r="D53">
+        <v>71.44816167713127</v>
+      </c>
+      <c r="E53">
+        <v>-15.721</v>
+      </c>
+      <c r="F53">
+        <v>37.179</v>
+      </c>
+      <c r="G53">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H53">
+        <v>20</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>7.09</v>
+      </c>
+      <c r="K53">
+        <v>1.17</v>
+      </c>
+      <c r="L53">
+        <v>5.92</v>
+      </c>
+      <c r="M53">
+        <v>0.7435799999999999</v>
+      </c>
+      <c r="N53">
+        <v>5.17642</v>
+      </c>
+      <c r="O53">
+        <v>1.1388124</v>
+      </c>
+      <c r="P53">
+        <v>4.0376076</v>
+      </c>
+      <c r="Q53">
+        <v>5.2076076</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.09831691751671687</v>
+      </c>
+      <c r="T53">
+        <v>1.885951642303323</v>
+      </c>
+      <c r="U53">
+        <v>0.02</v>
+      </c>
+      <c r="V53">
+        <v>0.22</v>
+      </c>
+      <c r="W53">
+        <v>0.0156</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>7.961483633233816</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.05653236190907207</v>
+      </c>
+      <c r="C54">
+        <v>33.24843025583057</v>
+      </c>
+      <c r="D54">
+        <v>71.07243025583057</v>
+      </c>
+      <c r="E54">
+        <v>-14.992</v>
+      </c>
+      <c r="F54">
+        <v>37.908</v>
+      </c>
+      <c r="G54">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H54">
+        <v>20</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>7.09</v>
+      </c>
+      <c r="K54">
+        <v>1.17</v>
+      </c>
+      <c r="L54">
+        <v>5.92</v>
+      </c>
+      <c r="M54">
+        <v>0.7998588000000001</v>
+      </c>
+      <c r="N54">
+        <v>5.1201412</v>
+      </c>
+      <c r="O54">
+        <v>1.126431064</v>
+      </c>
+      <c r="P54">
+        <v>3.993710136</v>
+      </c>
+      <c r="Q54">
+        <v>5.163710136</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.09994625397723347</v>
+      </c>
+      <c r="T54">
+        <v>1.920471482568506</v>
+      </c>
+      <c r="U54">
+        <v>0.0211</v>
+      </c>
+      <c r="V54">
+        <v>0.22</v>
+      </c>
+      <c r="W54">
+        <v>0.016458</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>7.401306330567344</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.05649585423495287</v>
+      </c>
+      <c r="C55">
+        <v>32.55346770689713</v>
+      </c>
+      <c r="D55">
+        <v>71.10646770689713</v>
+      </c>
+      <c r="E55">
+        <v>-14.26299999999999</v>
+      </c>
+      <c r="F55">
+        <v>38.63700000000001</v>
+      </c>
+      <c r="G55">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H55">
+        <v>20</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>7.09</v>
+      </c>
+      <c r="K55">
+        <v>1.17</v>
+      </c>
+      <c r="L55">
+        <v>5.92</v>
+      </c>
+      <c r="M55">
+        <v>0.8152407000000002</v>
+      </c>
+      <c r="N55">
+        <v>5.1047593</v>
+      </c>
+      <c r="O55">
+        <v>1.123047046</v>
+      </c>
+      <c r="P55">
+        <v>3.981712254</v>
+      </c>
+      <c r="Q55">
+        <v>5.151712254</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1016449239041551</v>
+      </c>
+      <c r="T55">
+        <v>1.956460252206675</v>
+      </c>
+      <c r="U55">
+        <v>0.0211</v>
+      </c>
+      <c r="V55">
+        <v>0.22</v>
+      </c>
+      <c r="W55">
+        <v>0.016458</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>7.261659041311356</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.05645934656083368</v>
+      </c>
+      <c r="C56">
+        <v>31.85853777548304</v>
+      </c>
+      <c r="D56">
+        <v>71.14053777548304</v>
+      </c>
+      <c r="E56">
+        <v>-13.53399999999999</v>
+      </c>
+      <c r="F56">
+        <v>39.36600000000001</v>
+      </c>
+      <c r="G56">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H56">
+        <v>20</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>7.09</v>
+      </c>
+      <c r="K56">
+        <v>1.17</v>
+      </c>
+      <c r="L56">
+        <v>5.92</v>
+      </c>
+      <c r="M56">
+        <v>0.8306226000000002</v>
+      </c>
+      <c r="N56">
+        <v>5.0893774</v>
+      </c>
+      <c r="O56">
+        <v>1.119663028</v>
+      </c>
+      <c r="P56">
+        <v>3.969714372</v>
+      </c>
+      <c r="Q56">
+        <v>5.139714372</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1034174490452906</v>
+      </c>
+      <c r="T56">
+        <v>1.994013750959547</v>
+      </c>
+      <c r="U56">
+        <v>0.0211</v>
+      </c>
+      <c r="V56">
+        <v>0.22</v>
+      </c>
+      <c r="W56">
+        <v>0.016458</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>7.127183873879664</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.05642283888671448</v>
+      </c>
+      <c r="C57">
+        <v>31.16364050849598</v>
+      </c>
+      <c r="D57">
+        <v>71.17464050849598</v>
+      </c>
+      <c r="E57">
+        <v>-12.80499999999999</v>
+      </c>
+      <c r="F57">
+        <v>40.09500000000001</v>
+      </c>
+      <c r="G57">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H57">
+        <v>20</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>7.09</v>
+      </c>
+      <c r="K57">
+        <v>1.17</v>
+      </c>
+      <c r="L57">
+        <v>5.92</v>
+      </c>
+      <c r="M57">
+        <v>0.8460045000000002</v>
+      </c>
+      <c r="N57">
+        <v>5.0739955</v>
+      </c>
+      <c r="O57">
+        <v>1.11627901</v>
+      </c>
+      <c r="P57">
+        <v>3.95771649</v>
+      </c>
+      <c r="Q57">
+        <v>5.127716489999999</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1052687530815877</v>
+      </c>
+      <c r="T57">
+        <v>2.033236294101435</v>
+      </c>
+      <c r="U57">
+        <v>0.0211</v>
+      </c>
+      <c r="V57">
+        <v>0.22</v>
+      </c>
+      <c r="W57">
+        <v>0.016458</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>6.997598712536398</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.05638633121259529</v>
+      </c>
+      <c r="C58">
+        <v>30.46877595293365</v>
+      </c>
+      <c r="D58">
+        <v>71.20877595293365</v>
+      </c>
+      <c r="E58">
+        <v>-12.07599999999999</v>
+      </c>
+      <c r="F58">
+        <v>40.82400000000001</v>
+      </c>
+      <c r="G58">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H58">
+        <v>20</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>7.09</v>
+      </c>
+      <c r="K58">
+        <v>1.17</v>
+      </c>
+      <c r="L58">
+        <v>5.92</v>
+      </c>
+      <c r="M58">
+        <v>0.8613864000000001</v>
+      </c>
+      <c r="N58">
+        <v>5.0586136</v>
+      </c>
+      <c r="O58">
+        <v>1.112894992</v>
+      </c>
+      <c r="P58">
+        <v>3.945718608</v>
+      </c>
+      <c r="Q58">
+        <v>5.115718608</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1072042073013529</v>
+      </c>
+      <c r="T58">
+        <v>2.07424168011341</v>
+      </c>
+      <c r="U58">
+        <v>0.0211</v>
+      </c>
+      <c r="V58">
+        <v>0.22</v>
+      </c>
+      <c r="W58">
+        <v>0.016458</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>6.872641592669677</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.0563498235384761</v>
+      </c>
+      <c r="C59">
+        <v>29.77394415588395</v>
+      </c>
+      <c r="D59">
+        <v>71.24294415588395</v>
+      </c>
+      <c r="E59">
+        <v>-11.34699999999999</v>
+      </c>
+      <c r="F59">
+        <v>41.553</v>
+      </c>
+      <c r="G59">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H59">
+        <v>20</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>7.09</v>
+      </c>
+      <c r="K59">
+        <v>1.17</v>
+      </c>
+      <c r="L59">
+        <v>5.92</v>
+      </c>
+      <c r="M59">
+        <v>0.8767683000000002</v>
+      </c>
+      <c r="N59">
+        <v>5.0432317</v>
+      </c>
+      <c r="O59">
+        <v>1.109510974</v>
+      </c>
+      <c r="P59">
+        <v>3.933720726</v>
+      </c>
+      <c r="Q59">
+        <v>5.103720726</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1092296826476188</v>
+      </c>
+      <c r="T59">
+        <v>2.117154293381755</v>
+      </c>
+      <c r="U59">
+        <v>0.0211</v>
+      </c>
+      <c r="V59">
+        <v>0.22</v>
+      </c>
+      <c r="W59">
+        <v>0.016458</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>6.752068933149156</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.0563133158643569</v>
+      </c>
+      <c r="C60">
+        <v>29.07914516452519</v>
+      </c>
+      <c r="D60">
+        <v>71.27714516452519</v>
+      </c>
+      <c r="E60">
+        <v>-10.61799999999999</v>
+      </c>
+      <c r="F60">
+        <v>42.282</v>
+      </c>
+      <c r="G60">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H60">
+        <v>20</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>7.09</v>
+      </c>
+      <c r="K60">
+        <v>1.17</v>
+      </c>
+      <c r="L60">
+        <v>5.92</v>
+      </c>
+      <c r="M60">
+        <v>0.8921502000000001</v>
+      </c>
+      <c r="N60">
+        <v>5.0278498</v>
+      </c>
+      <c r="O60">
+        <v>1.106126956</v>
+      </c>
+      <c r="P60">
+        <v>3.921722844</v>
+      </c>
+      <c r="Q60">
+        <v>5.091722844</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1113516092008498</v>
+      </c>
+      <c r="T60">
+        <v>2.162110364424783</v>
+      </c>
+      <c r="U60">
+        <v>0.0211</v>
+      </c>
+      <c r="V60">
+        <v>0.22</v>
+      </c>
+      <c r="W60">
+        <v>0.016458</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>6.635653951543136</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.0562768081902377</v>
+      </c>
+      <c r="C61">
+        <v>28.38437902612637</v>
+      </c>
+      <c r="D61">
+        <v>71.31137902612637</v>
+      </c>
+      <c r="E61">
+        <v>-9.888999999999996</v>
+      </c>
+      <c r="F61">
+        <v>43.011</v>
+      </c>
+      <c r="G61">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H61">
+        <v>20</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>7.09</v>
+      </c>
+      <c r="K61">
+        <v>1.17</v>
+      </c>
+      <c r="L61">
+        <v>5.92</v>
+      </c>
+      <c r="M61">
+        <v>0.9075321000000001</v>
+      </c>
+      <c r="N61">
+        <v>5.0124679</v>
+      </c>
+      <c r="O61">
+        <v>1.102742938</v>
+      </c>
+      <c r="P61">
+        <v>3.909724962</v>
+      </c>
+      <c r="Q61">
+        <v>5.079724962</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1135770443664334</v>
+      </c>
+      <c r="T61">
+        <v>2.209259414543081</v>
+      </c>
+      <c r="U61">
+        <v>0.0211</v>
+      </c>
+      <c r="V61">
+        <v>0.22</v>
+      </c>
+      <c r="W61">
+        <v>0.016458</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>6.523185240500032</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.05694230051611851</v>
+      </c>
+      <c r="C62">
+        <v>27.03645471392998</v>
+      </c>
+      <c r="D62">
+        <v>70.69245471392998</v>
+      </c>
+      <c r="E62">
+        <v>-9.159999999999997</v>
+      </c>
+      <c r="F62">
+        <v>43.74</v>
+      </c>
+      <c r="G62">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H62">
+        <v>20</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>7.09</v>
+      </c>
+      <c r="K62">
+        <v>1.17</v>
+      </c>
+      <c r="L62">
+        <v>5.92</v>
+      </c>
+      <c r="M62">
+        <v>0.988524</v>
+      </c>
+      <c r="N62">
+        <v>4.931476</v>
+      </c>
+      <c r="O62">
+        <v>1.08492472</v>
+      </c>
+      <c r="P62">
+        <v>3.84655128</v>
+      </c>
+      <c r="Q62">
+        <v>5.01655128</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1159137512902963</v>
+      </c>
+      <c r="T62">
+        <v>2.258765917167294</v>
+      </c>
+      <c r="U62">
+        <v>0.0226</v>
+      </c>
+      <c r="V62">
+        <v>0.22</v>
+      </c>
+      <c r="W62">
+        <v>0.017628</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>5.988726626768799</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.05691749284199931</v>
+      </c>
+      <c r="C63">
+        <v>26.33033362229506</v>
+      </c>
+      <c r="D63">
+        <v>70.71533362229506</v>
+      </c>
+      <c r="E63">
+        <v>-8.430999999999997</v>
+      </c>
+      <c r="F63">
+        <v>44.469</v>
+      </c>
+      <c r="G63">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H63">
+        <v>20</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>7.09</v>
+      </c>
+      <c r="K63">
+        <v>1.17</v>
+      </c>
+      <c r="L63">
+        <v>5.92</v>
+      </c>
+      <c r="M63">
+        <v>1.0049994</v>
+      </c>
+      <c r="N63">
+        <v>4.9150006</v>
+      </c>
+      <c r="O63">
+        <v>1.081300132</v>
+      </c>
+      <c r="P63">
+        <v>3.833700468</v>
+      </c>
+      <c r="Q63">
+        <v>5.003700468</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1183702893384598</v>
+      </c>
+      <c r="T63">
+        <v>2.310811214797877</v>
+      </c>
+      <c r="U63">
+        <v>0.0226</v>
+      </c>
+      <c r="V63">
+        <v>0.22</v>
+      </c>
+      <c r="W63">
+        <v>0.017628</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>5.890550780428327</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.05689268516788012</v>
+      </c>
+      <c r="C64">
+        <v>25.62422734451582</v>
+      </c>
+      <c r="D64">
+        <v>70.73822734451582</v>
+      </c>
+      <c r="E64">
+        <v>-7.701999999999998</v>
+      </c>
+      <c r="F64">
+        <v>45.198</v>
+      </c>
+      <c r="G64">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H64">
+        <v>20</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>7.09</v>
+      </c>
+      <c r="K64">
+        <v>1.17</v>
+      </c>
+      <c r="L64">
+        <v>5.92</v>
+      </c>
+      <c r="M64">
+        <v>1.0214748</v>
+      </c>
+      <c r="N64">
+        <v>4.8985252</v>
+      </c>
+      <c r="O64">
+        <v>1.077675544</v>
+      </c>
+      <c r="P64">
+        <v>3.820849656</v>
+      </c>
+      <c r="Q64">
+        <v>4.990849656</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1209561188628424</v>
+      </c>
+      <c r="T64">
+        <v>2.365595738619543</v>
+      </c>
+      <c r="U64">
+        <v>0.0226</v>
+      </c>
+      <c r="V64">
+        <v>0.22</v>
+      </c>
+      <c r="W64">
+        <v>0.017628</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>5.795541896873031</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.05686787749376093</v>
+      </c>
+      <c r="C65">
+        <v>24.91813589498463</v>
+      </c>
+      <c r="D65">
+        <v>70.76113589498463</v>
+      </c>
+      <c r="E65">
+        <v>-6.972999999999992</v>
+      </c>
+      <c r="F65">
+        <v>45.92700000000001</v>
+      </c>
+      <c r="G65">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H65">
+        <v>20</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>7.09</v>
+      </c>
+      <c r="K65">
+        <v>1.17</v>
+      </c>
+      <c r="L65">
+        <v>5.92</v>
+      </c>
+      <c r="M65">
+        <v>1.0379502</v>
+      </c>
+      <c r="N65">
+        <v>4.8820498</v>
+      </c>
+      <c r="O65">
+        <v>1.074050956</v>
+      </c>
+      <c r="P65">
+        <v>3.807998844</v>
+      </c>
+      <c r="Q65">
+        <v>4.977998844</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1236817229561106</v>
+      </c>
+      <c r="T65">
+        <v>2.423341588053191</v>
+      </c>
+      <c r="U65">
+        <v>0.0226</v>
+      </c>
+      <c r="V65">
+        <v>0.22</v>
+      </c>
+      <c r="W65">
+        <v>0.017628</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>5.703549168351237</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.05684306981964173</v>
+      </c>
+      <c r="C66">
+        <v>24.21205928811251</v>
+      </c>
+      <c r="D66">
+        <v>70.78405928811252</v>
+      </c>
+      <c r="E66">
+        <v>-6.243999999999993</v>
+      </c>
+      <c r="F66">
+        <v>46.65600000000001</v>
+      </c>
+      <c r="G66">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H66">
+        <v>20</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>7.09</v>
+      </c>
+      <c r="K66">
+        <v>1.17</v>
+      </c>
+      <c r="L66">
+        <v>5.92</v>
+      </c>
+      <c r="M66">
+        <v>1.0544256</v>
+      </c>
+      <c r="N66">
+        <v>4.8655744</v>
+      </c>
+      <c r="O66">
+        <v>1.070426368</v>
+      </c>
+      <c r="P66">
+        <v>3.795148032</v>
+      </c>
+      <c r="Q66">
+        <v>4.965148032</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1265587494990048</v>
+      </c>
+      <c r="T66">
+        <v>2.484295540233153</v>
+      </c>
+      <c r="U66">
+        <v>0.0226</v>
+      </c>
+      <c r="V66">
+        <v>0.22</v>
+      </c>
+      <c r="W66">
+        <v>0.017628</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>5.614431212595749</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.05681826214552255</v>
+      </c>
+      <c r="C67">
+        <v>23.50599753832921</v>
+      </c>
+      <c r="D67">
+        <v>70.80699753832921</v>
+      </c>
+      <c r="E67">
+        <v>-5.514999999999993</v>
+      </c>
+      <c r="F67">
+        <v>47.38500000000001</v>
+      </c>
+      <c r="G67">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H67">
+        <v>20</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>7.09</v>
+      </c>
+      <c r="K67">
+        <v>1.17</v>
+      </c>
+      <c r="L67">
+        <v>5.92</v>
+      </c>
+      <c r="M67">
+        <v>1.070901</v>
+      </c>
+      <c r="N67">
+        <v>4.849099</v>
+      </c>
+      <c r="O67">
+        <v>1.06680178</v>
+      </c>
+      <c r="P67">
+        <v>3.78229722</v>
+      </c>
+      <c r="Q67">
+        <v>4.95229722</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1296001775586358</v>
+      </c>
+      <c r="T67">
+        <v>2.548732575394827</v>
+      </c>
+      <c r="U67">
+        <v>0.0226</v>
+      </c>
+      <c r="V67">
+        <v>0.22</v>
+      </c>
+      <c r="W67">
+        <v>0.017628</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>5.528055347786583</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.05679345447140334</v>
+      </c>
+      <c r="C68">
+        <v>22.79995066008316</v>
+      </c>
+      <c r="D68">
+        <v>70.82995066008316</v>
+      </c>
+      <c r="E68">
+        <v>-4.785999999999994</v>
+      </c>
+      <c r="F68">
+        <v>48.114</v>
+      </c>
+      <c r="G68">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H68">
+        <v>20</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>7.09</v>
+      </c>
+      <c r="K68">
+        <v>1.17</v>
+      </c>
+      <c r="L68">
+        <v>5.92</v>
+      </c>
+      <c r="M68">
+        <v>1.0873764</v>
+      </c>
+      <c r="N68">
+        <v>4.8326236</v>
+      </c>
+      <c r="O68">
+        <v>1.063177192</v>
+      </c>
+      <c r="P68">
+        <v>3.769446408</v>
+      </c>
+      <c r="Q68">
+        <v>4.939446408</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1328205131511863</v>
+      </c>
+      <c r="T68">
+        <v>2.616960024389541</v>
+      </c>
+      <c r="U68">
+        <v>0.0226</v>
+      </c>
+      <c r="V68">
+        <v>0.22</v>
+      </c>
+      <c r="W68">
+        <v>0.017628</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>5.44429693342618</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.05676864679728415</v>
+      </c>
+      <c r="C69">
+        <v>22.09391866784148</v>
+      </c>
+      <c r="D69">
+        <v>70.85291866784148</v>
+      </c>
+      <c r="E69">
+        <v>-4.056999999999995</v>
+      </c>
+      <c r="F69">
+        <v>48.843</v>
+      </c>
+      <c r="G69">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H69">
+        <v>20</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>7.09</v>
+      </c>
+      <c r="K69">
+        <v>1.17</v>
+      </c>
+      <c r="L69">
+        <v>5.92</v>
+      </c>
+      <c r="M69">
+        <v>1.1038518</v>
+      </c>
+      <c r="N69">
+        <v>4.8161482</v>
+      </c>
+      <c r="O69">
+        <v>1.059552604</v>
+      </c>
+      <c r="P69">
+        <v>3.756595595999999</v>
+      </c>
+      <c r="Q69">
+        <v>4.926595595999999</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1362360205978308</v>
+      </c>
+      <c r="T69">
+        <v>2.689322470293025</v>
+      </c>
+      <c r="U69">
+        <v>0.0226</v>
+      </c>
+      <c r="V69">
+        <v>0.22</v>
+      </c>
+      <c r="W69">
+        <v>0.017628</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>5.363038770240715</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.05674383912316495</v>
+      </c>
+      <c r="C70">
+        <v>21.38790157609014</v>
+      </c>
+      <c r="D70">
+        <v>70.87590157609014</v>
+      </c>
+      <c r="E70">
+        <v>-3.327999999999989</v>
+      </c>
+      <c r="F70">
+        <v>49.57200000000001</v>
+      </c>
+      <c r="G70">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H70">
+        <v>20</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>7.09</v>
+      </c>
+      <c r="K70">
+        <v>1.17</v>
+      </c>
+      <c r="L70">
+        <v>5.92</v>
+      </c>
+      <c r="M70">
+        <v>1.1203272</v>
+      </c>
+      <c r="N70">
+        <v>4.7996728</v>
+      </c>
+      <c r="O70">
+        <v>1.055928016</v>
+      </c>
+      <c r="P70">
+        <v>3.743744784</v>
+      </c>
+      <c r="Q70">
+        <v>4.913744783999999</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1398649972598905</v>
+      </c>
+      <c r="T70">
+        <v>2.766207569065477</v>
+      </c>
+      <c r="U70">
+        <v>0.0226</v>
+      </c>
+      <c r="V70">
+        <v>0.22</v>
+      </c>
+      <c r="W70">
+        <v>0.017628</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>5.284170553031292</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.05671903144904576</v>
+      </c>
+      <c r="C71">
+        <v>20.68189939933388</v>
+      </c>
+      <c r="D71">
+        <v>70.89889939933389</v>
+      </c>
+      <c r="E71">
+        <v>-2.59899999999999</v>
+      </c>
+      <c r="F71">
+        <v>50.30100000000001</v>
+      </c>
+      <c r="G71">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H71">
+        <v>20</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>7.09</v>
+      </c>
+      <c r="K71">
+        <v>1.17</v>
+      </c>
+      <c r="L71">
+        <v>5.92</v>
+      </c>
+      <c r="M71">
+        <v>1.1368026</v>
+      </c>
+      <c r="N71">
+        <v>4.7831974</v>
+      </c>
+      <c r="O71">
+        <v>1.052303428</v>
+      </c>
+      <c r="P71">
+        <v>3.730893972</v>
+      </c>
+      <c r="Q71">
+        <v>4.900893972</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1437281014485347</v>
+      </c>
+      <c r="T71">
+        <v>2.84805299679099</v>
+      </c>
+      <c r="U71">
+        <v>0.0226</v>
+      </c>
+      <c r="V71">
+        <v>0.22</v>
+      </c>
+      <c r="W71">
+        <v>0.017628</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>5.207588371103302</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.05669422377492656</v>
+      </c>
+      <c r="C72">
+        <v>19.97591215209628</v>
+      </c>
+      <c r="D72">
+        <v>70.92191215209628</v>
+      </c>
+      <c r="E72">
+        <v>-1.86999999999999</v>
+      </c>
+      <c r="F72">
+        <v>51.03000000000001</v>
+      </c>
+      <c r="G72">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H72">
+        <v>20</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>7.09</v>
+      </c>
+      <c r="K72">
+        <v>1.17</v>
+      </c>
+      <c r="L72">
+        <v>5.92</v>
+      </c>
+      <c r="M72">
+        <v>1.153278</v>
+      </c>
+      <c r="N72">
+        <v>4.766722</v>
+      </c>
+      <c r="O72">
+        <v>1.04867884</v>
+      </c>
+      <c r="P72">
+        <v>3.71804316</v>
+      </c>
+      <c r="Q72">
+        <v>4.88804316</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1478487459164219</v>
+      </c>
+      <c r="T72">
+        <v>2.935354786364871</v>
+      </c>
+      <c r="U72">
+        <v>0.0226</v>
+      </c>
+      <c r="V72">
+        <v>0.22</v>
+      </c>
+      <c r="W72">
+        <v>0.017628</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>5.133194251516112</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.05666941610080738</v>
+      </c>
+      <c r="C73">
+        <v>19.26993984891976</v>
+      </c>
+      <c r="D73">
+        <v>70.94493984891976</v>
+      </c>
+      <c r="E73">
+        <v>-1.140999999999998</v>
+      </c>
+      <c r="F73">
+        <v>51.759</v>
+      </c>
+      <c r="G73">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H73">
+        <v>20</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>7.09</v>
+      </c>
+      <c r="K73">
+        <v>1.17</v>
+      </c>
+      <c r="L73">
+        <v>5.92</v>
+      </c>
+      <c r="M73">
+        <v>1.1697534</v>
+      </c>
+      <c r="N73">
+        <v>4.750246600000001</v>
+      </c>
+      <c r="O73">
+        <v>1.045054252</v>
+      </c>
+      <c r="P73">
+        <v>3.705192348000001</v>
+      </c>
+      <c r="Q73">
+        <v>4.875192348000001</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1522535727614047</v>
+      </c>
+      <c r="T73">
+        <v>3.028677389012812</v>
+      </c>
+      <c r="U73">
+        <v>0.0226</v>
+      </c>
+      <c r="V73">
+        <v>0.22</v>
+      </c>
+      <c r="W73">
+        <v>0.017628</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>5.060895740931381</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.05664460842668817</v>
+      </c>
+      <c r="C74">
+        <v>18.56398250436565</v>
+      </c>
+      <c r="D74">
+        <v>70.96798250436565</v>
+      </c>
+      <c r="E74">
+        <v>-0.411999999999999</v>
+      </c>
+      <c r="F74">
+        <v>52.488</v>
+      </c>
+      <c r="G74">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H74">
+        <v>20</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>7.09</v>
+      </c>
+      <c r="K74">
+        <v>1.17</v>
+      </c>
+      <c r="L74">
+        <v>5.92</v>
+      </c>
+      <c r="M74">
+        <v>1.1862288</v>
+      </c>
+      <c r="N74">
+        <v>4.7337712</v>
+      </c>
+      <c r="O74">
+        <v>1.041429664</v>
+      </c>
+      <c r="P74">
+        <v>3.692341536</v>
+      </c>
+      <c r="Q74">
+        <v>4.862341536</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1569730300953149</v>
+      </c>
+      <c r="T74">
+        <v>3.128665891849892</v>
+      </c>
+      <c r="U74">
+        <v>0.0226</v>
+      </c>
+      <c r="V74">
+        <v>0.22</v>
+      </c>
+      <c r="W74">
+        <v>0.017628</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>4.990605522307332</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.05661980075256898</v>
+      </c>
+      <c r="C75">
+        <v>17.85804013301419</v>
+      </c>
+      <c r="D75">
+        <v>70.9910401330142</v>
+      </c>
+      <c r="E75">
+        <v>0.3170000000000073</v>
+      </c>
+      <c r="F75">
+        <v>53.21700000000001</v>
+      </c>
+      <c r="G75">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H75">
+        <v>20</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>7.09</v>
+      </c>
+      <c r="K75">
+        <v>1.17</v>
+      </c>
+      <c r="L75">
+        <v>5.92</v>
+      </c>
+      <c r="M75">
+        <v>1.2027042</v>
+      </c>
+      <c r="N75">
+        <v>4.7172958</v>
+      </c>
+      <c r="O75">
+        <v>1.037805076</v>
+      </c>
+      <c r="P75">
+        <v>3.679490724</v>
+      </c>
+      <c r="Q75">
+        <v>4.849490724</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1620420768613666</v>
+      </c>
+      <c r="T75">
+        <v>3.236060950452682</v>
+      </c>
+      <c r="U75">
+        <v>0.0226</v>
+      </c>
+      <c r="V75">
+        <v>0.22</v>
+      </c>
+      <c r="W75">
+        <v>0.017628</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>4.922241063097642</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.05659499307844978</v>
+      </c>
+      <c r="C76">
+        <v>17.15211274946463</v>
+      </c>
+      <c r="D76">
+        <v>71.01411274946463</v>
+      </c>
+      <c r="E76">
+        <v>1.046000000000006</v>
+      </c>
+      <c r="F76">
+        <v>53.94600000000001</v>
+      </c>
+      <c r="G76">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H76">
+        <v>20</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>7.09</v>
+      </c>
+      <c r="K76">
+        <v>1.17</v>
+      </c>
+      <c r="L76">
+        <v>5.92</v>
+      </c>
+      <c r="M76">
+        <v>1.2191796</v>
+      </c>
+      <c r="N76">
+        <v>4.7008204</v>
+      </c>
+      <c r="O76">
+        <v>1.034180488</v>
+      </c>
+      <c r="P76">
+        <v>3.666639912</v>
+      </c>
+      <c r="Q76">
+        <v>4.836639912</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.1675010503017299</v>
+      </c>
+      <c r="T76">
+        <v>3.351717167409533</v>
+      </c>
+      <c r="U76">
+        <v>0.0226</v>
+      </c>
+      <c r="V76">
+        <v>0.22</v>
+      </c>
+      <c r="W76">
+        <v>0.017628</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>4.855724291974701</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.05657018540433058</v>
+      </c>
+      <c r="C77">
+        <v>16.44620036833511</v>
+      </c>
+      <c r="D77">
+        <v>71.03720036833511</v>
+      </c>
+      <c r="E77">
+        <v>1.775000000000006</v>
+      </c>
+      <c r="F77">
+        <v>54.675</v>
+      </c>
+      <c r="G77">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H77">
+        <v>20</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>7.09</v>
+      </c>
+      <c r="K77">
+        <v>1.17</v>
+      </c>
+      <c r="L77">
+        <v>5.92</v>
+      </c>
+      <c r="M77">
+        <v>1.235655</v>
+      </c>
+      <c r="N77">
+        <v>4.684345</v>
+      </c>
+      <c r="O77">
+        <v>1.0305559</v>
+      </c>
+      <c r="P77">
+        <v>3.6537891</v>
+      </c>
+      <c r="Q77">
+        <v>4.8237891</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.1733967416173224</v>
+      </c>
+      <c r="T77">
+        <v>3.476625881722931</v>
+      </c>
+      <c r="U77">
+        <v>0.0226</v>
+      </c>
+      <c r="V77">
+        <v>0.22</v>
+      </c>
+      <c r="W77">
+        <v>0.017628</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>4.790981301415039</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.0565453777302114</v>
+      </c>
+      <c r="C78">
+        <v>15.74030300426286</v>
+      </c>
+      <c r="D78">
+        <v>71.06030300426286</v>
+      </c>
+      <c r="E78">
+        <v>2.504000000000005</v>
+      </c>
+      <c r="F78">
+        <v>55.404</v>
+      </c>
+      <c r="G78">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H78">
+        <v>20</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>7.09</v>
+      </c>
+      <c r="K78">
+        <v>1.17</v>
+      </c>
+      <c r="L78">
+        <v>5.92</v>
+      </c>
+      <c r="M78">
+        <v>1.2521304</v>
+      </c>
+      <c r="N78">
+        <v>4.6678696</v>
+      </c>
+      <c r="O78">
+        <v>1.026931312</v>
+      </c>
+      <c r="P78">
+        <v>3.640938288</v>
+      </c>
+      <c r="Q78">
+        <v>4.810938287999999</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.1797837405425475</v>
+      </c>
+      <c r="T78">
+        <v>3.611943655562447</v>
+      </c>
+      <c r="U78">
+        <v>0.0226</v>
+      </c>
+      <c r="V78">
+        <v>0.22</v>
+      </c>
+      <c r="W78">
+        <v>0.017628</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>4.727942073764841</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.0565205700560922</v>
+      </c>
+      <c r="C79">
+        <v>15.03442067190415</v>
+      </c>
+      <c r="D79">
+        <v>71.08342067190415</v>
+      </c>
+      <c r="E79">
+        <v>3.233000000000004</v>
+      </c>
+      <c r="F79">
+        <v>56.133</v>
+      </c>
+      <c r="G79">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H79">
+        <v>20</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>7.09</v>
+      </c>
+      <c r="K79">
+        <v>1.17</v>
+      </c>
+      <c r="L79">
+        <v>5.92</v>
+      </c>
+      <c r="M79">
+        <v>1.2686058</v>
+      </c>
+      <c r="N79">
+        <v>4.6513942</v>
+      </c>
+      <c r="O79">
+        <v>1.023306724</v>
+      </c>
+      <c r="P79">
+        <v>3.628087476</v>
+      </c>
+      <c r="Q79">
+        <v>4.798087476</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.1867261306786618</v>
+      </c>
+      <c r="T79">
+        <v>3.759028192344529</v>
+      </c>
+      <c r="U79">
+        <v>0.0226</v>
+      </c>
+      <c r="V79">
+        <v>0.22</v>
+      </c>
+      <c r="W79">
+        <v>0.017628</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>4.666540228651012</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.05649576238197301</v>
+      </c>
+      <c r="C80">
+        <v>14.3285533859343</v>
+      </c>
+      <c r="D80">
+        <v>71.1065533859343</v>
+      </c>
+      <c r="E80">
+        <v>3.96200000000001</v>
+      </c>
+      <c r="F80">
+        <v>56.86200000000001</v>
+      </c>
+      <c r="G80">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H80">
+        <v>20</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>7.09</v>
+      </c>
+      <c r="K80">
+        <v>1.17</v>
+      </c>
+      <c r="L80">
+        <v>5.92</v>
+      </c>
+      <c r="M80">
+        <v>1.2850812</v>
+      </c>
+      <c r="N80">
+        <v>4.634918799999999</v>
+      </c>
+      <c r="O80">
+        <v>1.019682136</v>
+      </c>
+      <c r="P80">
+        <v>3.615236663999999</v>
+      </c>
+      <c r="Q80">
+        <v>4.785236663999999</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.1942996471907864</v>
+      </c>
+      <c r="T80">
+        <v>3.919484050652255</v>
+      </c>
+      <c r="U80">
+        <v>0.0226</v>
+      </c>
+      <c r="V80">
+        <v>0.22</v>
+      </c>
+      <c r="W80">
+        <v>0.017628</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>4.606712789822152</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.05647095470785382</v>
+      </c>
+      <c r="C81">
+        <v>13.62270116104774</v>
+      </c>
+      <c r="D81">
+        <v>71.12970116104775</v>
+      </c>
+      <c r="E81">
+        <v>4.69100000000001</v>
+      </c>
+      <c r="F81">
+        <v>57.59100000000001</v>
+      </c>
+      <c r="G81">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H81">
+        <v>20</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>7.09</v>
+      </c>
+      <c r="K81">
+        <v>1.17</v>
+      </c>
+      <c r="L81">
+        <v>5.92</v>
+      </c>
+      <c r="M81">
+        <v>1.3015566</v>
+      </c>
+      <c r="N81">
+        <v>4.6184434</v>
+      </c>
+      <c r="O81">
+        <v>1.016057548</v>
+      </c>
+      <c r="P81">
+        <v>3.602385852</v>
+      </c>
+      <c r="Q81">
+        <v>4.772385852</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2025944509897801</v>
+      </c>
+      <c r="T81">
+        <v>4.095221419275003</v>
+      </c>
+      <c r="U81">
+        <v>0.0226</v>
+      </c>
+      <c r="V81">
+        <v>0.22</v>
+      </c>
+      <c r="W81">
+        <v>0.017628</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>4.548399969697822</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1122724484478773</v>
+      </c>
+      <c r="C82">
+        <v>-17.1739710585696</v>
+      </c>
+      <c r="D82">
+        <v>41.06202894143041</v>
+      </c>
+      <c r="E82">
+        <v>5.420000000000009</v>
+      </c>
+      <c r="F82">
+        <v>58.32000000000001</v>
+      </c>
+      <c r="G82">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H82">
+        <v>20</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>7.09</v>
+      </c>
+      <c r="K82">
+        <v>1.17</v>
+      </c>
+      <c r="L82">
+        <v>5.92</v>
+      </c>
+      <c r="M82">
+        <v>6.356880000000001</v>
+      </c>
+      <c r="N82">
+        <v>-0.4368800000000013</v>
+      </c>
+      <c r="O82">
+        <v>-0.09611360000000028</v>
+      </c>
+      <c r="P82">
+        <v>-0.340766400000001</v>
+      </c>
+      <c r="Q82">
+        <v>0.8292335999999989</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2146900886042701</v>
+      </c>
+      <c r="T82">
+        <v>4.35148492805657</v>
+      </c>
+      <c r="U82">
+        <v>0.109</v>
+      </c>
+      <c r="V82">
+        <v>0.2048803815708334</v>
+      </c>
+      <c r="W82">
+        <v>0.08666803840877915</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.9312744616856066</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1132694484478773</v>
+      </c>
+      <c r="C83">
+        <v>-18.21077262163405</v>
+      </c>
+      <c r="D83">
+        <v>40.75422737836595</v>
+      </c>
+      <c r="E83">
+        <v>6.149000000000008</v>
+      </c>
+      <c r="F83">
+        <v>59.04900000000001</v>
+      </c>
+      <c r="G83">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H83">
+        <v>20</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>7.09</v>
+      </c>
+      <c r="K83">
+        <v>1.17</v>
+      </c>
+      <c r="L83">
+        <v>5.92</v>
+      </c>
+      <c r="M83">
+        <v>6.436341000000001</v>
+      </c>
+      <c r="N83">
+        <v>-0.5163410000000006</v>
+      </c>
+      <c r="O83">
+        <v>-0.1135950200000001</v>
+      </c>
+      <c r="P83">
+        <v>-0.4027459800000005</v>
+      </c>
+      <c r="Q83">
+        <v>0.7672540199999994</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2255000932676527</v>
+      </c>
+      <c r="T83">
+        <v>4.580510450585863</v>
+      </c>
+      <c r="U83">
+        <v>0.109</v>
+      </c>
+      <c r="V83">
+        <v>0.2023509941440331</v>
+      </c>
+      <c r="W83">
+        <v>0.08694374163830039</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.9197772461092412</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.1142664484478773</v>
+      </c>
+      <c r="C84">
+        <v>-19.24299394827647</v>
+      </c>
+      <c r="D84">
+        <v>40.45100605172353</v>
+      </c>
+      <c r="E84">
+        <v>6.878000000000007</v>
+      </c>
+      <c r="F84">
+        <v>59.77800000000001</v>
+      </c>
+      <c r="G84">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H84">
+        <v>20</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>7.09</v>
+      </c>
+      <c r="K84">
+        <v>1.17</v>
+      </c>
+      <c r="L84">
+        <v>5.92</v>
+      </c>
+      <c r="M84">
+        <v>6.515802000000001</v>
+      </c>
+      <c r="N84">
+        <v>-0.5958020000000008</v>
+      </c>
+      <c r="O84">
+        <v>-0.1310764400000002</v>
+      </c>
+      <c r="P84">
+        <v>-0.4647255600000006</v>
+      </c>
+      <c r="Q84">
+        <v>0.7052744399999993</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.2375112095603001</v>
+      </c>
+      <c r="T84">
+        <v>4.83498325339619</v>
+      </c>
+      <c r="U84">
+        <v>0.109</v>
+      </c>
+      <c r="V84">
+        <v>0.1998832990934961</v>
+      </c>
+      <c r="W84">
+        <v>0.08721272039880894</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.9085604504249821</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.1152634484478773</v>
+      </c>
+      <c r="C85">
+        <v>-20.27073651767359</v>
+      </c>
+      <c r="D85">
+        <v>40.15226348232642</v>
+      </c>
+      <c r="E85">
+        <v>7.607000000000014</v>
+      </c>
+      <c r="F85">
+        <v>60.50700000000001</v>
+      </c>
+      <c r="G85">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H85">
+        <v>20</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>7.09</v>
+      </c>
+      <c r="K85">
+        <v>1.17</v>
+      </c>
+      <c r="L85">
+        <v>5.92</v>
+      </c>
+      <c r="M85">
+        <v>6.595263000000001</v>
+      </c>
+      <c r="N85">
+        <v>-0.6752630000000011</v>
+      </c>
+      <c r="O85">
+        <v>-0.1485578600000002</v>
+      </c>
+      <c r="P85">
+        <v>-0.5267051400000008</v>
+      </c>
+      <c r="Q85">
+        <v>0.6432948599999991</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2509353983579648</v>
+      </c>
+      <c r="T85">
+        <v>5.11939403300773</v>
+      </c>
+      <c r="U85">
+        <v>0.109</v>
+      </c>
+      <c r="V85">
+        <v>0.1974750665742973</v>
+      </c>
+      <c r="W85">
+        <v>0.0874752177434016</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.8976139389740787</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.1162604484478773</v>
+      </c>
+      <c r="C86">
+        <v>-21.29409883316532</v>
+      </c>
+      <c r="D86">
+        <v>39.85790116683468</v>
+      </c>
+      <c r="E86">
+        <v>8.336000000000006</v>
+      </c>
+      <c r="F86">
+        <v>61.236</v>
+      </c>
+      <c r="G86">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H86">
+        <v>20</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>7.09</v>
+      </c>
+      <c r="K86">
+        <v>1.17</v>
+      </c>
+      <c r="L86">
+        <v>5.92</v>
+      </c>
+      <c r="M86">
+        <v>6.674724</v>
+      </c>
+      <c r="N86">
+        <v>-0.7547240000000004</v>
+      </c>
+      <c r="O86">
+        <v>-0.1660392800000001</v>
+      </c>
+      <c r="P86">
+        <v>-0.5886847200000003</v>
+      </c>
+      <c r="Q86">
+        <v>0.5813152799999997</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.2660376107553374</v>
+      </c>
+      <c r="T86">
+        <v>5.43935616007071</v>
+      </c>
+      <c r="U86">
+        <v>0.109</v>
+      </c>
+      <c r="V86">
+        <v>0.1951241729246033</v>
+      </c>
+      <c r="W86">
+        <v>0.08773146515121823</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.8869280587481969</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.1172574484478773</v>
+      </c>
+      <c r="C87">
+        <v>-22.3131765305426</v>
+      </c>
+      <c r="D87">
+        <v>39.5678234694574</v>
+      </c>
+      <c r="E87">
+        <v>9.065000000000005</v>
+      </c>
+      <c r="F87">
+        <v>61.965</v>
+      </c>
+      <c r="G87">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H87">
+        <v>20</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>7.09</v>
+      </c>
+      <c r="K87">
+        <v>1.17</v>
+      </c>
+      <c r="L87">
+        <v>5.92</v>
+      </c>
+      <c r="M87">
+        <v>6.754185000000001</v>
+      </c>
+      <c r="N87">
+        <v>-0.8341850000000006</v>
+      </c>
+      <c r="O87">
+        <v>-0.1835207000000001</v>
+      </c>
+      <c r="P87">
+        <v>-0.6506643000000005</v>
+      </c>
+      <c r="Q87">
+        <v>0.5193356999999994</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.28315345147236</v>
+      </c>
+      <c r="T87">
+        <v>5.801979904075425</v>
+      </c>
+      <c r="U87">
+        <v>0.109</v>
+      </c>
+      <c r="V87">
+        <v>0.192828594419608</v>
+      </c>
+      <c r="W87">
+        <v>0.08798168320826273</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.8764936109982181</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.1182544484478773</v>
+      </c>
+      <c r="C88">
+        <v>-23.32806248164041</v>
+      </c>
+      <c r="D88">
+        <v>39.28193751835959</v>
+      </c>
+      <c r="E88">
+        <v>9.794000000000004</v>
+      </c>
+      <c r="F88">
+        <v>62.694</v>
+      </c>
+      <c r="G88">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H88">
+        <v>20</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>7.09</v>
+      </c>
+      <c r="K88">
+        <v>1.17</v>
+      </c>
+      <c r="L88">
+        <v>5.92</v>
+      </c>
+      <c r="M88">
+        <v>6.833646</v>
+      </c>
+      <c r="N88">
+        <v>-0.913646</v>
+      </c>
+      <c r="O88">
+        <v>-0.20100212</v>
+      </c>
+      <c r="P88">
+        <v>-0.71264388</v>
+      </c>
+      <c r="Q88">
+        <v>0.4573561199999999</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.3027144122918143</v>
+      </c>
+      <c r="T88">
+        <v>6.216407040080813</v>
+      </c>
+      <c r="U88">
+        <v>0.109</v>
+      </c>
+      <c r="V88">
+        <v>0.1905864014612405</v>
+      </c>
+      <c r="W88">
+        <v>0.0882260822407248</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.8663018248238202</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.1192514484478773</v>
+      </c>
+      <c r="C89">
+        <v>-24.33884689347257</v>
+      </c>
+      <c r="D89">
+        <v>39.00015310652743</v>
+      </c>
+      <c r="E89">
+        <v>10.523</v>
+      </c>
+      <c r="F89">
+        <v>63.423</v>
+      </c>
+      <c r="G89">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H89">
+        <v>20</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>7.09</v>
+      </c>
+      <c r="K89">
+        <v>1.17</v>
+      </c>
+      <c r="L89">
+        <v>5.92</v>
+      </c>
+      <c r="M89">
+        <v>6.913107</v>
+      </c>
+      <c r="N89">
+        <v>-0.9931070000000002</v>
+      </c>
+      <c r="O89">
+        <v>-0.21848354</v>
+      </c>
+      <c r="P89">
+        <v>-0.7746234600000002</v>
+      </c>
+      <c r="Q89">
+        <v>0.3953765399999998</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.325284751698877</v>
+      </c>
+      <c r="T89">
+        <v>6.694592197010106</v>
+      </c>
+      <c r="U89">
+        <v>0.109</v>
+      </c>
+      <c r="V89">
+        <v>0.1883957531685825</v>
+      </c>
+      <c r="W89">
+        <v>0.08846486290462451</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.856344332584466</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.1202484484478773</v>
+      </c>
+      <c r="C90">
+        <v>-25.34561740312982</v>
+      </c>
+      <c r="D90">
+        <v>38.72238259687018</v>
+      </c>
+      <c r="E90">
+        <v>11.252</v>
+      </c>
+      <c r="F90">
+        <v>64.152</v>
+      </c>
+      <c r="G90">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H90">
+        <v>20</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>7.09</v>
+      </c>
+      <c r="K90">
+        <v>1.17</v>
+      </c>
+      <c r="L90">
+        <v>5.92</v>
+      </c>
+      <c r="M90">
+        <v>6.992568</v>
+      </c>
+      <c r="N90">
+        <v>-1.072568</v>
+      </c>
+      <c r="O90">
+        <v>-0.2359649600000001</v>
+      </c>
+      <c r="P90">
+        <v>-0.8366030400000003</v>
+      </c>
+      <c r="Q90">
+        <v>0.3333969599999996</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.3516168143404501</v>
+      </c>
+      <c r="T90">
+        <v>7.252474880094281</v>
+      </c>
+      <c r="U90">
+        <v>0.109</v>
+      </c>
+      <c r="V90">
+        <v>0.1862548923371214</v>
+      </c>
+      <c r="W90">
+        <v>0.08869821673525377</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.8466131469869151</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.1212454484478773</v>
+      </c>
+      <c r="C91">
+        <v>-26.34845916865135</v>
+      </c>
+      <c r="D91">
+        <v>38.44854083134864</v>
+      </c>
+      <c r="E91">
+        <v>11.981</v>
+      </c>
+      <c r="F91">
+        <v>64.881</v>
+      </c>
+      <c r="G91">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H91">
+        <v>20</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>7.09</v>
+      </c>
+      <c r="K91">
+        <v>1.17</v>
+      </c>
+      <c r="L91">
+        <v>5.92</v>
+      </c>
+      <c r="M91">
+        <v>7.072029</v>
+      </c>
+      <c r="N91">
+        <v>-1.152029</v>
+      </c>
+      <c r="O91">
+        <v>-0.25344638</v>
+      </c>
+      <c r="P91">
+        <v>-0.8985826199999998</v>
+      </c>
+      <c r="Q91">
+        <v>0.2714173800000002</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.3827365247350364</v>
+      </c>
+      <c r="T91">
+        <v>7.91179077828467</v>
+      </c>
+      <c r="U91">
+        <v>0.109</v>
+      </c>
+      <c r="V91">
+        <v>0.1841621407378279</v>
+      </c>
+      <c r="W91">
+        <v>0.08892632665957675</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.8371006397173993</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.1222424484478773</v>
+      </c>
+      <c r="C92">
+        <v>-27.34745495606757</v>
+      </c>
+      <c r="D92">
+        <v>38.17854504393244</v>
+      </c>
+      <c r="E92">
+        <v>12.71000000000002</v>
+      </c>
+      <c r="F92">
+        <v>65.61000000000001</v>
+      </c>
+      <c r="G92">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H92">
+        <v>20</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>7.09</v>
+      </c>
+      <c r="K92">
+        <v>1.17</v>
+      </c>
+      <c r="L92">
+        <v>5.92</v>
+      </c>
+      <c r="M92">
+        <v>7.151490000000002</v>
+      </c>
+      <c r="N92">
+        <v>-1.231490000000002</v>
+      </c>
+      <c r="O92">
+        <v>-0.2709278000000004</v>
+      </c>
+      <c r="P92">
+        <v>-0.9605622000000014</v>
+      </c>
+      <c r="Q92">
+        <v>0.2094377999999986</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.4200801772085401</v>
+      </c>
+      <c r="T92">
+        <v>8.702969856113139</v>
+      </c>
+      <c r="U92">
+        <v>0.109</v>
+      </c>
+      <c r="V92">
+        <v>0.1821158947296297</v>
+      </c>
+      <c r="W92">
+        <v>0.08914936747447036</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.8277995214983169</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.1232394484478773</v>
+      </c>
+      <c r="C93">
+        <v>-28.342685222801</v>
+      </c>
+      <c r="D93">
+        <v>37.91231477719901</v>
+      </c>
+      <c r="E93">
+        <v>13.43900000000001</v>
+      </c>
+      <c r="F93">
+        <v>66.33900000000001</v>
+      </c>
+      <c r="G93">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H93">
+        <v>20</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>7.09</v>
+      </c>
+      <c r="K93">
+        <v>1.17</v>
+      </c>
+      <c r="L93">
+        <v>5.92</v>
+      </c>
+      <c r="M93">
+        <v>7.230951000000001</v>
+      </c>
+      <c r="N93">
+        <v>-1.310951000000001</v>
+      </c>
+      <c r="O93">
+        <v>-0.2884092200000002</v>
+      </c>
+      <c r="P93">
+        <v>-1.022541780000001</v>
+      </c>
+      <c r="Q93">
+        <v>0.147458219999999</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.4657224191206002</v>
+      </c>
+      <c r="T93">
+        <v>9.669966506792377</v>
+      </c>
+      <c r="U93">
+        <v>0.109</v>
+      </c>
+      <c r="V93">
+        <v>0.1801146211611723</v>
+      </c>
+      <c r="W93">
+        <v>0.08936750629343222</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.818702823459874</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.1242364484478773</v>
+      </c>
+      <c r="C94">
+        <v>-29.33422819760194</v>
+      </c>
+      <c r="D94">
+        <v>37.64977180239807</v>
+      </c>
+      <c r="E94">
+        <v>14.16800000000001</v>
+      </c>
+      <c r="F94">
+        <v>67.06800000000001</v>
+      </c>
+      <c r="G94">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H94">
+        <v>20</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>7.09</v>
+      </c>
+      <c r="K94">
+        <v>1.17</v>
+      </c>
+      <c r="L94">
+        <v>5.92</v>
+      </c>
+      <c r="M94">
+        <v>7.310412000000001</v>
+      </c>
+      <c r="N94">
+        <v>-1.390412000000001</v>
+      </c>
+      <c r="O94">
+        <v>-0.3058906400000003</v>
+      </c>
+      <c r="P94">
+        <v>-1.084521360000001</v>
+      </c>
+      <c r="Q94">
+        <v>0.08547863999999894</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.5227752215106753</v>
+      </c>
+      <c r="T94">
+        <v>10.87871232014143</v>
+      </c>
+      <c r="U94">
+        <v>0.109</v>
+      </c>
+      <c r="V94">
+        <v>0.1781568535398552</v>
+      </c>
+      <c r="W94">
+        <v>0.08958090296415579</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.8098038797266145</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.1252334484478773</v>
+      </c>
+      <c r="C95">
+        <v>-30.32215995718549</v>
+      </c>
+      <c r="D95">
+        <v>37.39084004281452</v>
+      </c>
+      <c r="E95">
+        <v>14.89700000000001</v>
+      </c>
+      <c r="F95">
+        <v>67.79700000000001</v>
+      </c>
+      <c r="G95">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H95">
+        <v>20</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>7.09</v>
+      </c>
+      <c r="K95">
+        <v>1.17</v>
+      </c>
+      <c r="L95">
+        <v>5.92</v>
+      </c>
+      <c r="M95">
+        <v>7.389873000000001</v>
+      </c>
+      <c r="N95">
+        <v>-1.469873000000002</v>
+      </c>
+      <c r="O95">
+        <v>-0.3233720600000003</v>
+      </c>
+      <c r="P95">
+        <v>-1.146500940000001</v>
+      </c>
+      <c r="Q95">
+        <v>0.02349905999999868</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.596128824583629</v>
+      </c>
+      <c r="T95">
+        <v>12.43281408016163</v>
+      </c>
+      <c r="U95">
+        <v>0.109</v>
+      </c>
+      <c r="V95">
+        <v>0.1762411884480288</v>
+      </c>
+      <c r="W95">
+        <v>0.08978971045916485</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.8010963111274035</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.1573504997257902</v>
+      </c>
+      <c r="C96">
+        <v>-37.83255361778438</v>
+      </c>
+      <c r="D96">
+        <v>30.60944638221563</v>
+      </c>
+      <c r="E96">
+        <v>15.62600000000001</v>
+      </c>
+      <c r="F96">
+        <v>68.52600000000001</v>
+      </c>
+      <c r="G96">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H96">
+        <v>20</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>7.09</v>
+      </c>
+      <c r="K96">
+        <v>1.17</v>
+      </c>
+      <c r="L96">
+        <v>5.92</v>
+      </c>
+      <c r="M96">
+        <v>9.607345200000001</v>
+      </c>
+      <c r="N96">
+        <v>-3.687345200000001</v>
+      </c>
+      <c r="O96">
+        <v>-0.8112159440000003</v>
+      </c>
+      <c r="P96">
+        <v>-2.876129256000001</v>
+      </c>
+      <c r="Q96">
+        <v>-1.706129256000001</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.7238011499794486</v>
+      </c>
+      <c r="T96">
+        <v>15.13773622837815</v>
+      </c>
+      <c r="U96">
+        <v>0.1402</v>
+      </c>
+      <c r="V96">
+        <v>0.1355629440690858</v>
+      </c>
+      <c r="W96">
+        <v>0.1211940752415142</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.6161952003140263</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.1586594997257902</v>
+      </c>
+      <c r="C97">
+        <v>-38.78615618879534</v>
+      </c>
+      <c r="D97">
+        <v>30.38484381120467</v>
+      </c>
+      <c r="E97">
+        <v>16.35500000000001</v>
+      </c>
+      <c r="F97">
+        <v>69.25500000000001</v>
+      </c>
+      <c r="G97">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H97">
+        <v>20</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>7.09</v>
+      </c>
+      <c r="K97">
+        <v>1.17</v>
+      </c>
+      <c r="L97">
+        <v>5.92</v>
+      </c>
+      <c r="M97">
+        <v>9.709551000000001</v>
+      </c>
+      <c r="N97">
+        <v>-3.789551000000001</v>
+      </c>
+      <c r="O97">
+        <v>-0.8337012200000002</v>
+      </c>
+      <c r="P97">
+        <v>-2.955849780000001</v>
+      </c>
+      <c r="Q97">
+        <v>-1.785849780000001</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.8667013799753387</v>
+      </c>
+      <c r="T97">
+        <v>18.16528347405379</v>
+      </c>
+      <c r="U97">
+        <v>0.1402</v>
+      </c>
+      <c r="V97">
+        <v>0.1341359657104638</v>
+      </c>
+      <c r="W97">
+        <v>0.121394137607393</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.6097089350475628</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.1599684997257902</v>
+      </c>
+      <c r="C98">
+        <v>-39.73648664235061</v>
+      </c>
+      <c r="D98">
+        <v>30.1635133576494</v>
+      </c>
+      <c r="E98">
+        <v>17.08400000000001</v>
+      </c>
+      <c r="F98">
+        <v>69.98400000000001</v>
+      </c>
+      <c r="G98">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H98">
+        <v>20</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>7.09</v>
+      </c>
+      <c r="K98">
+        <v>1.17</v>
+      </c>
+      <c r="L98">
+        <v>5.92</v>
+      </c>
+      <c r="M98">
+        <v>9.811756800000001</v>
+      </c>
+      <c r="N98">
+        <v>-3.891756800000001</v>
+      </c>
+      <c r="O98">
+        <v>-0.8561864960000003</v>
+      </c>
+      <c r="P98">
+        <v>-3.035570304000001</v>
+      </c>
+      <c r="Q98">
+        <v>-1.865570304000001</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.081051724969171</v>
+      </c>
+      <c r="T98">
+        <v>22.70660434256718</v>
+      </c>
+      <c r="U98">
+        <v>0.1402</v>
+      </c>
+      <c r="V98">
+        <v>0.1327387160676465</v>
+      </c>
+      <c r="W98">
+        <v>0.121590032007316</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.6033578003074841</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.1612774997257902</v>
+      </c>
+      <c r="C99">
+        <v>-40.68361596601312</v>
+      </c>
+      <c r="D99">
+        <v>29.94538403398688</v>
+      </c>
+      <c r="E99">
+        <v>17.81300000000001</v>
+      </c>
+      <c r="F99">
+        <v>70.71300000000001</v>
+      </c>
+      <c r="G99">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H99">
+        <v>20</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>7.09</v>
+      </c>
+      <c r="K99">
+        <v>1.17</v>
+      </c>
+      <c r="L99">
+        <v>5.92</v>
+      </c>
+      <c r="M99">
+        <v>9.913962600000001</v>
+      </c>
+      <c r="N99">
+        <v>-3.993962600000001</v>
+      </c>
+      <c r="O99">
+        <v>-0.8786717720000004</v>
+      </c>
+      <c r="P99">
+        <v>-3.115290828000001</v>
+      </c>
+      <c r="Q99">
+        <v>-1.945290828000001</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.438302299958895</v>
+      </c>
+      <c r="T99">
+        <v>30.27547245675625</v>
+      </c>
+      <c r="U99">
+        <v>0.1402</v>
+      </c>
+      <c r="V99">
+        <v>0.1313702756958151</v>
+      </c>
+      <c r="W99">
+        <v>0.1217818873474467</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.5971376167991596</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.1625864997257902</v>
+      </c>
+      <c r="C100">
+        <v>-41.6276131086846</v>
+      </c>
+      <c r="D100">
+        <v>29.73038689131541</v>
+      </c>
+      <c r="E100">
+        <v>18.54200000000001</v>
+      </c>
+      <c r="F100">
+        <v>71.44200000000001</v>
+      </c>
+      <c r="G100">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H100">
+        <v>20</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>7.09</v>
+      </c>
+      <c r="K100">
+        <v>1.17</v>
+      </c>
+      <c r="L100">
+        <v>5.92</v>
+      </c>
+      <c r="M100">
+        <v>10.0161684</v>
+      </c>
+      <c r="N100">
+        <v>-4.0961684</v>
+      </c>
+      <c r="O100">
+        <v>-0.901157048</v>
+      </c>
+      <c r="P100">
+        <v>-3.195011352</v>
+      </c>
+      <c r="Q100">
+        <v>-2.025011352</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.152803449938342</v>
+      </c>
+      <c r="T100">
+        <v>45.41320868513437</v>
+      </c>
+      <c r="U100">
+        <v>0.1402</v>
+      </c>
+      <c r="V100">
+        <v>0.1300297626785109</v>
+      </c>
+      <c r="W100">
+        <v>0.1219698272724728</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.591044375811413</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.1638954997257902</v>
+      </c>
+      <c r="C101">
+        <v>-42.56854505326813</v>
+      </c>
+      <c r="D101">
+        <v>29.51845494673188</v>
+      </c>
+      <c r="E101">
+        <v>19.27100000000001</v>
+      </c>
+      <c r="F101">
+        <v>72.17100000000001</v>
+      </c>
+      <c r="G101">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H101">
+        <v>20</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>7.09</v>
+      </c>
+      <c r="K101">
+        <v>1.17</v>
+      </c>
+      <c r="L101">
+        <v>5.92</v>
+      </c>
+      <c r="M101">
+        <v>10.1183742</v>
+      </c>
+      <c r="N101">
+        <v>-4.1983742</v>
+      </c>
+      <c r="O101">
+        <v>-0.923642324</v>
+      </c>
+      <c r="P101">
+        <v>-3.274731876</v>
+      </c>
+      <c r="Q101">
+        <v>-2.104731876</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>4.296306899876684</v>
+      </c>
+      <c r="T101">
+        <v>90.82641737026873</v>
+      </c>
+      <c r="U101">
+        <v>0.1402</v>
+      </c>
+      <c r="V101">
+        <v>0.1287163307322633</v>
+      </c>
+      <c r="W101">
+        <v>0.1221539704313367</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.5850742306011968</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
